--- a/Filtered_By_Region/Region IV-B/Region IV-B_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_ELECTRIFICATION.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR253"/>
+  <dimension ref="A1:AS253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +659,11 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -707,7 +713,6 @@
       <c r="K2" t="n">
         <v>402289.69</v>
       </c>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -716,17 +721,6 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
@@ -763,14 +757,12 @@
       <c r="AK2" t="n">
         <v>0</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="n">
         <v>1</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -835,7 +827,6 @@
       <c r="K3" t="n">
         <v>205929.74</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -844,17 +835,6 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
@@ -891,15 +871,12 @@
       <c r="AK3" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -959,7 +936,6 @@
       <c r="K4" t="n">
         <v>292608.44</v>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -968,17 +944,6 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
@@ -1015,14 +980,12 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
         <v>1</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1087,7 +1050,6 @@
       <c r="K5" t="n">
         <v>264530.17</v>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1096,17 +1058,6 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -1143,14 +1094,12 @@
       <c r="AK5" t="n">
         <v>0</v>
       </c>
-      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
         <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1215,7 +1164,6 @@
       <c r="K6" t="n">
         <v>259843.51</v>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1224,17 +1172,6 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
@@ -1271,14 +1208,12 @@
       <c r="AK6" t="n">
         <v>0</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
         <v>1</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1343,7 +1278,6 @@
       <c r="K7" t="n">
         <v>373145.16</v>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1352,17 +1286,6 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1399,14 +1322,12 @@
       <c r="AK7" t="n">
         <v>0</v>
       </c>
-      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
         <v>1</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1471,7 +1392,6 @@
       <c r="K8" t="n">
         <v>361588.04</v>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1480,17 +1400,6 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
@@ -1527,14 +1436,12 @@
       <c r="AK8" t="n">
         <v>0</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
         <v>1</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1630,10 +1537,10 @@
           <t>062-2018</t>
         </is>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U9" t="inlineStr">
@@ -1656,7 +1563,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1693,14 +1599,12 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="n">
         <v>1</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1796,10 +1700,10 @@
           <t>062-2018</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U10" t="inlineStr">
@@ -1822,7 +1726,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -1859,14 +1762,12 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -1962,10 +1863,10 @@
           <t>062-2018</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U11" t="inlineStr">
@@ -1988,7 +1889,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -2025,14 +1925,12 @@
       <c r="AK11" t="n">
         <v>0</v>
       </c>
-      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="n">
         <v>1</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2128,10 +2026,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U12" t="inlineStr">
@@ -2154,7 +2052,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
@@ -2191,14 +2088,12 @@
       <c r="AK12" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2294,10 +2189,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U13" t="inlineStr">
@@ -2320,7 +2215,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -2357,14 +2251,12 @@
       <c r="AK13" t="n">
         <v>0</v>
       </c>
-      <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="n">
         <v>1</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2460,10 +2352,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U14" t="inlineStr">
@@ -2486,7 +2378,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
@@ -2523,14 +2414,12 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
-      <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="n">
         <v>1</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2626,10 +2515,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U15" t="inlineStr">
@@ -2652,7 +2541,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
@@ -2689,14 +2577,12 @@
       <c r="AK15" t="n">
         <v>0</v>
       </c>
-      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="n">
         <v>1</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2792,10 +2678,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U16" t="inlineStr">
@@ -2818,7 +2704,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
@@ -2855,14 +2740,12 @@
       <c r="AK16" t="n">
         <v>0</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="n">
         <v>1</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -2958,10 +2841,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U17" t="inlineStr">
@@ -2984,7 +2867,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
@@ -3021,14 +2903,12 @@
       <c r="AK17" t="n">
         <v>0</v>
       </c>
-      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="n">
         <v>1</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3124,10 +3004,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U18" t="inlineStr">
@@ -3150,7 +3030,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -3187,14 +3066,12 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
-      <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="n">
         <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3290,10 +3167,10 @@
           <t>062-2018</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U19" t="inlineStr">
@@ -3316,7 +3193,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -3353,14 +3229,12 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
-      <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="n">
         <v>1</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3456,10 +3330,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U20" t="inlineStr">
@@ -3482,7 +3356,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -3519,14 +3392,12 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
-      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="n">
         <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3622,10 +3493,10 @@
           <t>062-2018</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U21" t="inlineStr">
@@ -3648,7 +3519,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -3685,14 +3555,12 @@
       <c r="AK21" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3788,10 +3656,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U22" t="inlineStr">
@@ -3814,7 +3682,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -3851,14 +3718,12 @@
       <c r="AK22" t="n">
         <v>0</v>
       </c>
-      <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="n">
         <v>1</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -3954,10 +3819,10 @@
           <t>063-2018</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U23" t="inlineStr">
@@ -3980,7 +3845,6 @@
           <t>ETVR TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
@@ -4017,14 +3881,12 @@
       <c r="AK23" t="n">
         <v>0</v>
       </c>
-      <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="n">
         <v>1</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4120,10 +3982,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U24" t="inlineStr">
@@ -4146,7 +4008,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -4183,14 +4044,12 @@
       <c r="AK24" t="n">
         <v>0</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="n">
         <v>1</v>
       </c>
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4286,10 +4145,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U25" t="inlineStr">
@@ -4312,7 +4171,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
@@ -4349,14 +4207,12 @@
       <c r="AK25" t="n">
         <v>0</v>
       </c>
-      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="n">
         <v>1</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4452,10 +4308,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U26" t="inlineStr">
@@ -4478,7 +4334,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
@@ -4515,14 +4370,12 @@
       <c r="AK26" t="n">
         <v>0</v>
       </c>
-      <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="n">
         <v>1</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4618,10 +4471,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U27" t="inlineStr">
@@ -4644,7 +4497,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
@@ -4681,14 +4533,12 @@
       <c r="AK27" t="n">
         <v>0</v>
       </c>
-      <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="n">
         <v>1</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4784,10 +4634,10 @@
           <t>064-2018</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="U28" t="inlineStr">
@@ -4810,7 +4660,6 @@
           <t>811 TRADING &amp; CONST.</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
@@ -4847,14 +4696,12 @@
       <c r="AK28" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="n">
         <v>1</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -4919,7 +4766,6 @@
       <c r="K29" t="n">
         <v>744618.0600000001</v>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4928,17 +4774,6 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
@@ -4975,14 +4810,12 @@
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-      <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="n">
         <v>1</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5047,7 +4880,6 @@
       <c r="K30" t="n">
         <v>348234.54</v>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5056,17 +4888,6 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -5103,14 +4924,12 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="n">
         <v>1</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5175,7 +4994,6 @@
       <c r="K31" t="n">
         <v>342234.44</v>
       </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5184,17 +5002,6 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -5231,14 +5038,12 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-      <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="n">
         <v>1</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5303,7 +5108,6 @@
       <c r="K32" t="n">
         <v>415435.9</v>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5312,17 +5116,6 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -5359,14 +5152,12 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-      <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="n">
         <v>1</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5431,7 +5222,6 @@
       <c r="K33" t="n">
         <v>363584.49</v>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5440,17 +5230,6 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -5487,14 +5266,12 @@
       <c r="AK33" t="n">
         <v>0</v>
       </c>
-      <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="n">
         <v>1</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5559,7 +5336,6 @@
       <c r="K34" t="n">
         <v>395639.45</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5568,17 +5344,6 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
@@ -5615,14 +5380,12 @@
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="n">
         <v>1</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5687,7 +5450,6 @@
       <c r="K35" t="n">
         <v>476354.92</v>
       </c>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5696,17 +5458,6 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
@@ -5743,14 +5494,12 @@
       <c r="AK35" t="n">
         <v>0</v>
       </c>
-      <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="n">
         <v>1</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5815,7 +5564,6 @@
       <c r="K36" t="n">
         <v>1680000</v>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5824,17 +5572,6 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
@@ -5882,7 +5619,6 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -5947,7 +5683,6 @@
       <c r="K37" t="n">
         <v>1780000</v>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5956,17 +5691,6 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
@@ -6014,7 +5738,6 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6079,7 +5802,6 @@
       <c r="K38" t="n">
         <v>279614.83</v>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6088,17 +5810,6 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
@@ -6135,14 +5846,12 @@
       <c r="AK38" t="n">
         <v>0</v>
       </c>
-      <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="n">
         <v>1</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6207,7 +5916,6 @@
       <c r="K39" t="n">
         <v>1420000</v>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6216,17 +5924,6 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -6274,7 +5971,6 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6339,7 +6035,6 @@
       <c r="K40" t="n">
         <v>910000</v>
       </c>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6348,17 +6043,6 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -6406,7 +6090,6 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6471,7 +6154,6 @@
       <c r="K41" t="n">
         <v>1750000</v>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6480,17 +6162,6 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
@@ -6538,7 +6209,6 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6603,7 +6273,6 @@
       <c r="K42" t="n">
         <v>231510.01</v>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6612,17 +6281,6 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
@@ -6659,14 +6317,12 @@
       <c r="AK42" t="n">
         <v>0</v>
       </c>
-      <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="n">
         <v>1</v>
       </c>
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6731,7 +6387,6 @@
       <c r="K43" t="n">
         <v>230019.54</v>
       </c>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6740,17 +6395,6 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
@@ -6787,14 +6431,12 @@
       <c r="AK43" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="n">
         <v>1</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6859,7 +6501,6 @@
       <c r="K44" t="n">
         <v>1800000</v>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6868,17 +6509,6 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
@@ -6926,7 +6556,6 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -6991,7 +6620,6 @@
       <c r="K45" t="n">
         <v>1640000</v>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7000,17 +6628,6 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
@@ -7058,7 +6675,6 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7123,7 +6739,6 @@
       <c r="K46" t="n">
         <v>1520000</v>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7132,17 +6747,6 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
@@ -7190,7 +6794,6 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7255,7 +6858,6 @@
       <c r="K47" t="n">
         <v>1430000</v>
       </c>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7264,17 +6866,6 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
@@ -7322,7 +6913,6 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7387,7 +6977,6 @@
       <c r="K48" t="n">
         <v>1760000</v>
       </c>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7396,17 +6985,6 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
@@ -7454,7 +7032,6 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7519,7 +7096,6 @@
       <c r="K49" t="n">
         <v>1490000</v>
       </c>
-      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7528,17 +7104,6 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
@@ -7586,7 +7151,6 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7651,7 +7215,6 @@
       <c r="K50" t="n">
         <v>1520000</v>
       </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7660,17 +7223,6 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
@@ -7718,7 +7270,6 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7783,7 +7334,6 @@
       <c r="K51" t="n">
         <v>1500000</v>
       </c>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7792,17 +7342,6 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -7850,7 +7389,6 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -7883,7 +7421,6 @@
           <t>Palawan</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Central Taytay Senior HS</t>
@@ -7913,7 +7450,6 @@
       <c r="K52" t="n">
         <v>1490000</v>
       </c>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7922,17 +7458,6 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
@@ -7980,7 +7505,6 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8045,7 +7569,6 @@
       <c r="K53" t="n">
         <v>1500000</v>
       </c>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8054,17 +7577,6 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
@@ -8112,7 +7624,6 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8177,7 +7688,6 @@
       <c r="K54" t="n">
         <v>1821855.42</v>
       </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8186,17 +7696,6 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
@@ -8244,7 +7743,6 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8309,7 +7807,6 @@
       <c r="K55" t="n">
         <v>1674473.45</v>
       </c>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8318,17 +7815,6 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
@@ -8376,7 +7862,6 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8441,7 +7926,6 @@
       <c r="K56" t="n">
         <v>1821855.42</v>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8450,17 +7934,6 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
@@ -8508,7 +7981,6 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8573,7 +8045,6 @@
       <c r="K57" t="n">
         <v>502744.54</v>
       </c>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8582,17 +8053,6 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
@@ -8629,14 +8089,12 @@
       <c r="AK57" t="n">
         <v>0</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="n">
         <v>1</v>
       </c>
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8701,7 +8159,6 @@
       <c r="K58" t="n">
         <v>2628689.896</v>
       </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8710,17 +8167,6 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
@@ -8768,7 +8214,6 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8833,7 +8278,6 @@
       <c r="K59" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8842,17 +8286,6 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
@@ -8900,7 +8333,6 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -8965,7 +8397,6 @@
       <c r="K60" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8974,17 +8405,6 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
@@ -9032,7 +8452,6 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9097,7 +8516,6 @@
       <c r="K61" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9106,17 +8524,6 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
@@ -9164,7 +8571,6 @@
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9229,7 +8635,6 @@
       <c r="K62" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9238,17 +8643,6 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
@@ -9296,7 +8690,6 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9361,7 +8754,6 @@
       <c r="K63" t="n">
         <v>168715.21</v>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9370,17 +8762,6 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
@@ -9417,14 +8798,12 @@
       <c r="AK63" t="n">
         <v>0</v>
       </c>
-      <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="n">
         <v>1</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9489,7 +8868,6 @@
       <c r="K64" t="n">
         <v>196968.33</v>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9498,17 +8876,6 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
@@ -9545,14 +8912,12 @@
       <c r="AK64" t="n">
         <v>0</v>
       </c>
-      <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="n">
         <v>1</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9617,7 +8982,6 @@
       <c r="K65" t="n">
         <v>1418751.108096</v>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9626,17 +8990,6 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
@@ -9684,7 +9037,6 @@
       <c r="AN65" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9749,7 +9101,6 @@
       <c r="K66" t="n">
         <v>2000000</v>
       </c>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9758,17 +9109,6 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
@@ -9816,7 +9156,6 @@
       <c r="AN66" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -9881,7 +9220,6 @@
       <c r="K67" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9890,17 +9228,6 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
@@ -9948,7 +9275,6 @@
       <c r="AN67" t="n">
         <v>0</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10013,7 +9339,6 @@
       <c r="K68" t="n">
         <v>1666214.844</v>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10022,17 +9347,6 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
@@ -10080,7 +9394,6 @@
       <c r="AN68" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10145,7 +9458,6 @@
       <c r="K69" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10154,17 +9466,6 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
@@ -10212,7 +9513,6 @@
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10277,7 +9577,6 @@
       <c r="K70" t="n">
         <v>2828689.896</v>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10286,17 +9585,6 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
@@ -10344,7 +9632,6 @@
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10409,7 +9696,6 @@
       <c r="K71" t="n">
         <v>194424.01</v>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10418,17 +9704,6 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
@@ -10465,14 +9740,12 @@
       <c r="AK71" t="n">
         <v>0</v>
       </c>
-      <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="n">
         <v>1</v>
       </c>
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10537,7 +9810,6 @@
       <c r="K72" t="n">
         <v>427669.95</v>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10546,17 +9818,6 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
@@ -10593,14 +9854,12 @@
       <c r="AK72" t="n">
         <v>0</v>
       </c>
-      <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="n">
         <v>1</v>
       </c>
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10665,7 +9924,6 @@
       <c r="K73" t="n">
         <v>3000000</v>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10674,17 +9932,6 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="n">
         <v>0</v>
       </c>
@@ -10732,7 +9979,6 @@
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10797,7 +10043,6 @@
       <c r="K74" t="n">
         <v>1418750.52</v>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10806,17 +10051,6 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="n">
         <v>0</v>
       </c>
@@ -10864,7 +10098,6 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -10929,7 +10162,6 @@
       <c r="K75" t="n">
         <v>438813.56</v>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10938,17 +10170,6 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="n">
         <v>0</v>
       </c>
@@ -10985,14 +10206,12 @@
       <c r="AK75" t="n">
         <v>0</v>
       </c>
-      <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="n">
         <v>1</v>
       </c>
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11057,7 +10276,6 @@
       <c r="K76" t="n">
         <v>2628689.896</v>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11066,17 +10284,6 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="n">
         <v>0</v>
       </c>
@@ -11124,7 +10331,6 @@
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11189,7 +10395,6 @@
       <c r="K77" t="n">
         <v>595235.36</v>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11198,17 +10403,6 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
         <v>0</v>
       </c>
@@ -11245,14 +10439,12 @@
       <c r="AK77" t="n">
         <v>0</v>
       </c>
-      <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="n">
         <v>1</v>
       </c>
       <c r="AN77" t="n">
         <v>0</v>
       </c>
-      <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11317,7 +10509,6 @@
       <c r="K78" t="n">
         <v>1821855.42</v>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11326,17 +10517,6 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="n">
         <v>0</v>
       </c>
@@ -11384,7 +10564,6 @@
       <c r="AN78" t="n">
         <v>0</v>
       </c>
-      <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11449,7 +10628,6 @@
       <c r="K79" t="n">
         <v>2722839.896</v>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11458,17 +10636,6 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="n">
         <v>0</v>
       </c>
@@ -11516,7 +10683,6 @@
       <c r="AN79" t="n">
         <v>0</v>
       </c>
-      <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11597,7 +10763,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -11638,7 +10803,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="n">
         <v>0</v>
       </c>
@@ -11675,14 +10839,12 @@
       <c r="AK80" t="n">
         <v>0</v>
       </c>
-      <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="n">
         <v>1</v>
       </c>
       <c r="AN80" t="n">
         <v>0</v>
       </c>
-      <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11763,7 +10925,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -11804,7 +10965,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="n">
         <v>0</v>
       </c>
@@ -11841,14 +11001,12 @@
       <c r="AK81" t="n">
         <v>0</v>
       </c>
-      <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="n">
         <v>1</v>
       </c>
       <c r="AN81" t="n">
         <v>0</v>
       </c>
-      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -11929,7 +11087,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -11970,7 +11127,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="n">
         <v>0</v>
       </c>
@@ -12007,14 +11163,12 @@
       <c r="AK82" t="n">
         <v>0</v>
       </c>
-      <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="n">
         <v>1</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
       </c>
-      <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12095,7 +11249,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -12136,7 +11289,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="n">
         <v>0</v>
       </c>
@@ -12173,14 +11325,12 @@
       <c r="AK83" t="n">
         <v>0</v>
       </c>
-      <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="n">
         <v>1</v>
       </c>
       <c r="AN83" t="n">
         <v>0</v>
       </c>
-      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12261,7 +11411,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -12302,7 +11451,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="n">
         <v>0</v>
       </c>
@@ -12339,14 +11487,12 @@
       <c r="AK84" t="n">
         <v>0</v>
       </c>
-      <c r="AL84" t="inlineStr"/>
       <c r="AM84" t="n">
         <v>1</v>
       </c>
       <c r="AN84" t="n">
         <v>0</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12427,7 +11573,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -12468,7 +11613,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="n">
         <v>0</v>
       </c>
@@ -12505,14 +11649,12 @@
       <c r="AK85" t="n">
         <v>0</v>
       </c>
-      <c r="AL85" t="inlineStr"/>
       <c r="AM85" t="n">
         <v>1</v>
       </c>
       <c r="AN85" t="n">
         <v>0</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12593,7 +11735,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -12634,7 +11775,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="n">
         <v>0</v>
       </c>
@@ -12671,14 +11811,12 @@
       <c r="AK86" t="n">
         <v>0</v>
       </c>
-      <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="n">
         <v>1</v>
       </c>
       <c r="AN86" t="n">
         <v>0</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12759,7 +11897,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -12800,7 +11937,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
@@ -12837,14 +11973,12 @@
       <c r="AK87" t="n">
         <v>0</v>
       </c>
-      <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="n">
         <v>1</v>
       </c>
       <c r="AN87" t="n">
         <v>0</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -12925,7 +12059,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -12966,7 +12099,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="n">
         <v>0</v>
       </c>
@@ -13003,14 +12135,12 @@
       <c r="AK88" t="n">
         <v>0</v>
       </c>
-      <c r="AL88" t="inlineStr"/>
       <c r="AM88" t="n">
         <v>1</v>
       </c>
       <c r="AN88" t="n">
         <v>0</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13091,7 +12221,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -13132,7 +12261,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="n">
         <v>0</v>
       </c>
@@ -13169,14 +12297,12 @@
       <c r="AK89" t="n">
         <v>0</v>
       </c>
-      <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="n">
         <v>1</v>
       </c>
       <c r="AN89" t="n">
         <v>0</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13257,7 +12383,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -13298,7 +12423,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="n">
         <v>0</v>
       </c>
@@ -13335,14 +12459,12 @@
       <c r="AK90" t="n">
         <v>0</v>
       </c>
-      <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="n">
         <v>1</v>
       </c>
       <c r="AN90" t="n">
         <v>0</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13423,7 +12545,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -13464,7 +12585,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="n">
         <v>0</v>
       </c>
@@ -13501,14 +12621,12 @@
       <c r="AK91" t="n">
         <v>0</v>
       </c>
-      <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="n">
         <v>1</v>
       </c>
       <c r="AN91" t="n">
         <v>0</v>
       </c>
-      <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13589,7 +12707,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -13630,7 +12747,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="n">
         <v>0</v>
       </c>
@@ -13667,14 +12783,12 @@
       <c r="AK92" t="n">
         <v>0</v>
       </c>
-      <c r="AL92" t="inlineStr"/>
       <c r="AM92" t="n">
         <v>1</v>
       </c>
       <c r="AN92" t="n">
         <v>0</v>
       </c>
-      <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13755,7 +12869,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -13796,7 +12909,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="n">
         <v>0</v>
       </c>
@@ -13833,14 +12945,12 @@
       <c r="AK93" t="n">
         <v>0</v>
       </c>
-      <c r="AL93" t="inlineStr"/>
       <c r="AM93" t="n">
         <v>1</v>
       </c>
       <c r="AN93" t="n">
         <v>0</v>
       </c>
-      <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -13921,7 +13031,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -13962,7 +13071,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="n">
         <v>0</v>
       </c>
@@ -13999,14 +13107,12 @@
       <c r="AK94" t="n">
         <v>0</v>
       </c>
-      <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="n">
         <v>1</v>
       </c>
       <c r="AN94" t="n">
         <v>0</v>
       </c>
-      <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14087,7 +13193,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -14128,7 +13233,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="n">
         <v>0</v>
       </c>
@@ -14165,14 +13269,12 @@
       <c r="AK95" t="n">
         <v>0</v>
       </c>
-      <c r="AL95" t="inlineStr"/>
       <c r="AM95" t="n">
         <v>1</v>
       </c>
       <c r="AN95" t="n">
         <v>0</v>
       </c>
-      <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14253,7 +13355,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -14294,7 +13395,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="n">
         <v>0</v>
       </c>
@@ -14331,14 +13431,12 @@
       <c r="AK96" t="n">
         <v>0</v>
       </c>
-      <c r="AL96" t="inlineStr"/>
       <c r="AM96" t="n">
         <v>1</v>
       </c>
       <c r="AN96" t="n">
         <v>0</v>
       </c>
-      <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14419,7 +13517,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -14460,7 +13557,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="n">
         <v>0</v>
       </c>
@@ -14497,14 +13593,12 @@
       <c r="AK97" t="n">
         <v>0</v>
       </c>
-      <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="n">
         <v>1</v>
       </c>
       <c r="AN97" t="n">
         <v>0</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14585,7 +13679,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -14626,7 +13719,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="n">
         <v>0</v>
       </c>
@@ -14663,14 +13755,12 @@
       <c r="AK98" t="n">
         <v>0</v>
       </c>
-      <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="n">
         <v>1</v>
       </c>
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14751,7 +13841,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -14792,7 +13881,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="n">
         <v>0</v>
       </c>
@@ -14829,14 +13917,12 @@
       <c r="AK99" t="n">
         <v>0</v>
       </c>
-      <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="n">
         <v>1</v>
       </c>
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -14917,7 +14003,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -14958,7 +14043,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="n">
         <v>0</v>
       </c>
@@ -14995,14 +14079,12 @@
       <c r="AK100" t="n">
         <v>0</v>
       </c>
-      <c r="AL100" t="inlineStr"/>
       <c r="AM100" t="n">
         <v>1</v>
       </c>
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15035,7 +14117,6 @@
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>Sta. Monica HS</t>
@@ -15081,7 +14162,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -15122,7 +14202,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="n">
         <v>0</v>
       </c>
@@ -15159,14 +14238,12 @@
       <c r="AK101" t="n">
         <v>0</v>
       </c>
-      <c r="AL101" t="inlineStr"/>
       <c r="AM101" t="n">
         <v>1</v>
       </c>
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15247,7 +14324,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -15288,7 +14364,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="n">
         <v>0</v>
       </c>
@@ -15325,14 +14400,12 @@
       <c r="AK102" t="n">
         <v>0</v>
       </c>
-      <c r="AL102" t="inlineStr"/>
       <c r="AM102" t="n">
         <v>1</v>
       </c>
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15413,7 +14486,6 @@
           <t>Jun. 25, 2018</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
           <t>2017 - E01</t>
@@ -15454,7 +14526,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="n">
         <v>0</v>
       </c>
@@ -15491,14 +14562,12 @@
       <c r="AK103" t="n">
         <v>0</v>
       </c>
-      <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="n">
         <v>1</v>
       </c>
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15531,7 +14600,6 @@
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>Tagburos Annex</t>
@@ -15577,7 +14645,6 @@
           <t>Jul. 4, 2018</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr">
         <is>
           <t>2017 - E02</t>
@@ -15618,7 +14685,6 @@
           <t>CARINA ELECTRICAL CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="n">
         <v>0</v>
       </c>
@@ -15655,14 +14721,12 @@
       <c r="AK104" t="n">
         <v>0</v>
       </c>
-      <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="n">
         <v>1</v>
       </c>
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15741,8 +14805,6 @@
           <t>10/25/2018</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr">
         <is>
           <t>2018-18</t>
@@ -15778,7 +14840,6 @@
           <t>ETVR TRADING &amp; CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="n">
         <v>0</v>
       </c>
@@ -15826,7 +14887,6 @@
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -15905,8 +14965,6 @@
           <t>10/25/2018</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
           <t>2018-18</t>
@@ -15942,7 +15000,6 @@
           <t>ETVR TRADING &amp; CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="n">
         <v>0</v>
       </c>
@@ -15990,7 +15047,6 @@
       <c r="AN106" t="n">
         <v>0</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16053,7 +15109,6 @@
       <c r="K107" t="n">
         <v>897069.46</v>
       </c>
-      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16062,17 +15117,6 @@
       <c r="N107" t="n">
         <v>1</v>
       </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="n">
         <v>0</v>
       </c>
@@ -16120,7 +15164,6 @@
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16183,7 +15226,6 @@
       <c r="K108" t="n">
         <v>437061.38</v>
       </c>
-      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16192,17 +15234,6 @@
       <c r="N108" t="n">
         <v>0</v>
       </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="n">
         <v>1</v>
       </c>
@@ -16250,8 +15281,6 @@
       <c r="AN108" t="n">
         <v>0</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16309,7 +15338,6 @@
       <c r="K109" t="n">
         <v>897069.46</v>
       </c>
-      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16318,17 +15346,6 @@
       <c r="N109" t="n">
         <v>1</v>
       </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="n">
         <v>0</v>
       </c>
@@ -16376,7 +15393,6 @@
       <c r="AN109" t="n">
         <v>0</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16439,7 +15455,6 @@
       <c r="K110" t="n">
         <v>437061.38</v>
       </c>
-      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16448,17 +15463,6 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="n">
         <v>1</v>
       </c>
@@ -16506,8 +15510,6 @@
       <c r="AN110" t="n">
         <v>0</v>
       </c>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
       <c r="AQ110" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16565,7 +15567,6 @@
       <c r="K111" t="n">
         <v>626955.35</v>
       </c>
-      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -16574,17 +15575,6 @@
       <c r="N111" t="n">
         <v>0</v>
       </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="n">
         <v>1</v>
       </c>
@@ -16632,8 +15622,6 @@
       <c r="AN111" t="n">
         <v>0</v>
       </c>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -16691,7 +15679,6 @@
       <c r="K112" t="n">
         <v>876671.83</v>
       </c>
-      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16700,17 +15687,6 @@
       <c r="N112" t="n">
         <v>1</v>
       </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="n">
         <v>0</v>
       </c>
@@ -16758,7 +15734,6 @@
       <c r="AN112" t="n">
         <v>0</v>
       </c>
-      <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16821,7 +15796,6 @@
       <c r="K113" t="n">
         <v>562469.72</v>
       </c>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16830,17 +15804,6 @@
       <c r="N113" t="n">
         <v>1</v>
       </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="n">
         <v>0</v>
       </c>
@@ -16888,7 +15851,6 @@
       <c r="AN113" t="n">
         <v>0</v>
       </c>
-      <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -16951,7 +15913,6 @@
       <c r="K114" t="n">
         <v>866324.22</v>
       </c>
-      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -16960,17 +15921,6 @@
       <c r="N114" t="n">
         <v>1</v>
       </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="n">
         <v>0</v>
       </c>
@@ -17018,7 +15968,6 @@
       <c r="AN114" t="n">
         <v>0</v>
       </c>
-      <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17081,7 +16030,6 @@
       <c r="K115" t="n">
         <v>817030.4</v>
       </c>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17090,17 +16038,6 @@
       <c r="N115" t="n">
         <v>1</v>
       </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="n">
         <v>0</v>
       </c>
@@ -17148,7 +16085,6 @@
       <c r="AN115" t="n">
         <v>0</v>
       </c>
-      <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17211,7 +16147,6 @@
       <c r="K116" t="n">
         <v>852498.8199999999</v>
       </c>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17220,17 +16155,6 @@
       <c r="N116" t="n">
         <v>1</v>
       </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="n">
         <v>0</v>
       </c>
@@ -17278,7 +16202,6 @@
       <c r="AN116" t="n">
         <v>0</v>
       </c>
-      <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17341,7 +16264,6 @@
       <c r="K117" t="n">
         <v>881194.4</v>
       </c>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17350,17 +16272,6 @@
       <c r="N117" t="n">
         <v>1</v>
       </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="n">
         <v>0</v>
       </c>
@@ -17408,7 +16319,6 @@
       <c r="AN117" t="n">
         <v>0</v>
       </c>
-      <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17471,7 +16381,6 @@
       <c r="K118" t="n">
         <v>849048.0600000001</v>
       </c>
-      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17480,17 +16389,6 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="n">
         <v>0</v>
       </c>
@@ -17538,7 +16436,6 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17601,7 +16498,6 @@
       <c r="K119" t="n">
         <v>562469.72</v>
       </c>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17610,17 +16506,6 @@
       <c r="N119" t="n">
         <v>1</v>
       </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="n">
         <v>0</v>
       </c>
@@ -17668,7 +16553,6 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17731,7 +16615,6 @@
       <c r="K120" t="n">
         <v>869277.89</v>
       </c>
-      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17740,17 +16623,6 @@
       <c r="N120" t="n">
         <v>1</v>
       </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="n">
         <v>0</v>
       </c>
@@ -17798,7 +16670,6 @@
       <c r="AN120" t="n">
         <v>0</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17831,7 +16702,6 @@
           <t>Occidental Mindoro</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>Pinagturilan NHS</t>
@@ -17859,7 +16729,6 @@
       <c r="K121" t="n">
         <v>824424.34</v>
       </c>
-      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17868,17 +16737,6 @@
       <c r="N121" t="n">
         <v>1</v>
       </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="n">
         <v>0</v>
       </c>
@@ -17926,7 +16784,6 @@
       <c r="AN121" t="n">
         <v>0</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -17959,7 +16816,6 @@
           <t>Oriental Mindoro</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>Anastacio Dela Chica High School</t>
@@ -17987,7 +16843,6 @@
       <c r="K122" t="n">
         <v>1517078.45</v>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17996,17 +16851,6 @@
       <c r="N122" t="n">
         <v>1</v>
       </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="n">
         <v>0</v>
       </c>
@@ -18054,7 +16898,6 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18117,7 +16960,6 @@
       <c r="K123" t="n">
         <v>631356.09</v>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18126,17 +16968,6 @@
       <c r="N123" t="n">
         <v>1</v>
       </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="n">
         <v>0</v>
       </c>
@@ -18184,7 +17015,6 @@
       <c r="AN123" t="n">
         <v>0</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18247,7 +17077,6 @@
       <c r="K124" t="n">
         <v>583660.05</v>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18256,17 +17085,6 @@
       <c r="N124" t="n">
         <v>1</v>
       </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="n">
         <v>0</v>
       </c>
@@ -18314,7 +17132,6 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18377,7 +17194,6 @@
       <c r="K125" t="n">
         <v>1324535.19</v>
       </c>
-      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18386,17 +17202,6 @@
       <c r="N125" t="n">
         <v>1</v>
       </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="n">
         <v>0</v>
       </c>
@@ -18444,7 +17249,6 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18507,7 +17311,6 @@
       <c r="K126" t="n">
         <v>747780.62</v>
       </c>
-      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18516,17 +17319,6 @@
       <c r="N126" t="n">
         <v>1</v>
       </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="n">
         <v>0</v>
       </c>
@@ -18574,7 +17366,6 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18637,7 +17428,6 @@
       <c r="K127" t="n">
         <v>1384901.13</v>
       </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18646,17 +17436,6 @@
       <c r="N127" t="n">
         <v>1</v>
       </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="n">
         <v>0</v>
       </c>
@@ -18704,7 +17483,6 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18767,7 +17545,6 @@
       <c r="K128" t="n">
         <v>938249.48</v>
       </c>
-      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18776,17 +17553,6 @@
       <c r="N128" t="n">
         <v>1</v>
       </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="n">
         <v>0</v>
       </c>
@@ -18834,7 +17600,6 @@
       <c r="AN128" t="n">
         <v>0</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -18897,7 +17662,6 @@
       <c r="K129" t="n">
         <v>1343352.5</v>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18906,17 +17670,6 @@
       <c r="N129" t="n">
         <v>1</v>
       </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="n">
         <v>0</v>
       </c>
@@ -18964,7 +17717,6 @@
       <c r="AN129" t="n">
         <v>0</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19027,7 +17779,6 @@
       <c r="K130" t="n">
         <v>1075277.83</v>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19036,17 +17787,6 @@
       <c r="N130" t="n">
         <v>1</v>
       </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="n">
         <v>0</v>
       </c>
@@ -19094,7 +17834,6 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19157,7 +17896,6 @@
       <c r="K131" t="n">
         <v>1494745.42</v>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19166,17 +17904,6 @@
       <c r="N131" t="n">
         <v>1</v>
       </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="n">
         <v>0</v>
       </c>
@@ -19224,7 +17951,6 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19287,7 +18013,6 @@
       <c r="K132" t="n">
         <v>1325200.18</v>
       </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19296,17 +18021,6 @@
       <c r="N132" t="n">
         <v>1</v>
       </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="n">
         <v>0</v>
       </c>
@@ -19354,7 +18068,6 @@
       <c r="AN132" t="n">
         <v>0</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19417,7 +18130,6 @@
       <c r="K133" t="n">
         <v>908171.38</v>
       </c>
-      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19426,17 +18138,6 @@
       <c r="N133" t="n">
         <v>1</v>
       </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="n">
         <v>0</v>
       </c>
@@ -19484,7 +18185,6 @@
       <c r="AN133" t="n">
         <v>0</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19547,7 +18247,6 @@
       <c r="K134" t="n">
         <v>944527.21</v>
       </c>
-      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19556,17 +18255,6 @@
       <c r="N134" t="n">
         <v>1</v>
       </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="n">
         <v>0</v>
       </c>
@@ -19614,7 +18302,6 @@
       <c r="AN134" t="n">
         <v>0</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19677,7 +18364,6 @@
       <c r="K135" t="n">
         <v>2124271.51</v>
       </c>
-      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19686,17 +18372,6 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="n">
         <v>0</v>
       </c>
@@ -19744,7 +18419,6 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19807,7 +18481,6 @@
       <c r="K136" t="n">
         <v>2509183.3</v>
       </c>
-      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19816,17 +18489,6 @@
       <c r="N136" t="n">
         <v>1</v>
       </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="n">
         <v>0</v>
       </c>
@@ -19874,7 +18536,6 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -19937,7 +18598,6 @@
       <c r="K137" t="n">
         <v>1244774.41</v>
       </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19946,17 +18606,6 @@
       <c r="N137" t="n">
         <v>1</v>
       </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="n">
         <v>0</v>
       </c>
@@ -20004,7 +18653,6 @@
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20067,7 +18715,6 @@
       <c r="K138" t="n">
         <v>1348153.75</v>
       </c>
-      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20076,17 +18723,6 @@
       <c r="N138" t="n">
         <v>1</v>
       </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="n">
         <v>0</v>
       </c>
@@ -20134,7 +18770,6 @@
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20197,7 +18832,6 @@
       <c r="K139" t="n">
         <v>1856418.02</v>
       </c>
-      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20206,17 +18840,6 @@
       <c r="N139" t="n">
         <v>1</v>
       </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="n">
         <v>0</v>
       </c>
@@ -20264,7 +18887,6 @@
       <c r="AN139" t="n">
         <v>0</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20327,7 +18949,6 @@
       <c r="K140" t="n">
         <v>1436313.98</v>
       </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20336,17 +18957,6 @@
       <c r="N140" t="n">
         <v>1</v>
       </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>0</v>
       </c>
@@ -20394,7 +19004,6 @@
       <c r="AN140" t="n">
         <v>0</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20457,7 +19066,6 @@
       <c r="K141" t="n">
         <v>1415684.72</v>
       </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20466,17 +19074,6 @@
       <c r="N141" t="n">
         <v>1</v>
       </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="n">
         <v>0</v>
       </c>
@@ -20524,7 +19121,6 @@
       <c r="AN141" t="n">
         <v>0</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20587,7 +19183,6 @@
       <c r="K142" t="n">
         <v>1629060.37</v>
       </c>
-      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20596,17 +19191,6 @@
       <c r="N142" t="n">
         <v>1</v>
       </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="n">
         <v>0</v>
       </c>
@@ -20654,7 +19238,6 @@
       <c r="AN142" t="n">
         <v>0</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20717,7 +19300,6 @@
       <c r="K143" t="n">
         <v>1764088.55</v>
       </c>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20726,17 +19308,6 @@
       <c r="N143" t="n">
         <v>1</v>
       </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="n">
         <v>0</v>
       </c>
@@ -20784,7 +19355,6 @@
       <c r="AN143" t="n">
         <v>0</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20847,7 +19417,6 @@
       <c r="K144" t="n">
         <v>1443595.29</v>
       </c>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20856,17 +19425,6 @@
       <c r="N144" t="n">
         <v>1</v>
       </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="n">
         <v>0</v>
       </c>
@@ -20914,7 +19472,6 @@
       <c r="AN144" t="n">
         <v>0</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -20977,7 +19534,6 @@
       <c r="K145" t="n">
         <v>2429697.81</v>
       </c>
-      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20986,17 +19542,6 @@
       <c r="N145" t="n">
         <v>1</v>
       </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
@@ -21044,7 +19589,6 @@
       <c r="AN145" t="n">
         <v>0</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21107,7 +19651,6 @@
       <c r="K146" t="n">
         <v>2080947.05</v>
       </c>
-      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21116,17 +19659,6 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
@@ -21174,7 +19706,6 @@
       <c r="AN146" t="n">
         <v>0</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21237,7 +19768,6 @@
       <c r="K147" t="n">
         <v>859977.49</v>
       </c>
-      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21246,17 +19776,6 @@
       <c r="N147" t="n">
         <v>1</v>
       </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
@@ -21304,7 +19823,6 @@
       <c r="AN147" t="n">
         <v>0</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21367,7 +19885,6 @@
       <c r="K148" t="n">
         <v>1426067.75</v>
       </c>
-      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21376,17 +19893,6 @@
       <c r="N148" t="n">
         <v>1</v>
       </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
@@ -21434,7 +19940,6 @@
       <c r="AN148" t="n">
         <v>0</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21497,7 +20002,6 @@
       <c r="K149" t="n">
         <v>966266.77</v>
       </c>
-      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21506,17 +20010,6 @@
       <c r="N149" t="n">
         <v>1</v>
       </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="n">
         <v>0</v>
       </c>
@@ -21564,7 +20057,6 @@
       <c r="AN149" t="n">
         <v>0</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21627,7 +20119,6 @@
       <c r="K150" t="n">
         <v>1653895.31</v>
       </c>
-      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21636,17 +20127,6 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="n">
         <v>0</v>
       </c>
@@ -21694,7 +20174,6 @@
       <c r="AN150" t="n">
         <v>0</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21757,7 +20236,6 @@
       <c r="K151" t="n">
         <v>1246826.83</v>
       </c>
-      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21766,17 +20244,6 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
@@ -21824,7 +20291,6 @@
       <c r="AN151" t="n">
         <v>0</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -21887,7 +20353,6 @@
       <c r="K152" t="n">
         <v>1374419.64</v>
       </c>
-      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21896,17 +20361,6 @@
       <c r="N152" t="n">
         <v>1</v>
       </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
@@ -21954,7 +20408,6 @@
       <c r="AN152" t="n">
         <v>0</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22017,7 +20470,6 @@
       <c r="K153" t="n">
         <v>1278597.83</v>
       </c>
-      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22026,17 +20478,6 @@
       <c r="N153" t="n">
         <v>1</v>
       </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
@@ -22084,7 +20525,6 @@
       <c r="AN153" t="n">
         <v>0</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22147,7 +20587,6 @@
       <c r="K154" t="n">
         <v>1319944.07</v>
       </c>
-      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22156,17 +20595,6 @@
       <c r="N154" t="n">
         <v>1</v>
       </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
@@ -22214,7 +20642,6 @@
       <c r="AN154" t="n">
         <v>0</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22277,7 +20704,6 @@
       <c r="K155" t="n">
         <v>1419892.76</v>
       </c>
-      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22286,17 +20712,6 @@
       <c r="N155" t="n">
         <v>1</v>
       </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
@@ -22344,7 +20759,6 @@
       <c r="AN155" t="n">
         <v>0</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22407,7 +20821,6 @@
       <c r="K156" t="n">
         <v>1411416.83</v>
       </c>
-      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22416,17 +20829,6 @@
       <c r="N156" t="n">
         <v>1</v>
       </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="n">
         <v>0</v>
       </c>
@@ -22474,7 +20876,6 @@
       <c r="AN156" t="n">
         <v>0</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22537,7 +20938,6 @@
       <c r="K157" t="n">
         <v>1246964.61</v>
       </c>
-      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22546,17 +20946,6 @@
       <c r="N157" t="n">
         <v>1</v>
       </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="n">
         <v>0</v>
       </c>
@@ -22604,7 +20993,6 @@
       <c r="AN157" t="n">
         <v>0</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22667,7 +21055,6 @@
       <c r="K158" t="n">
         <v>1942556.02</v>
       </c>
-      <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22676,17 +21063,6 @@
       <c r="N158" t="n">
         <v>1</v>
       </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="n">
         <v>0</v>
       </c>
@@ -22734,7 +21110,6 @@
       <c r="AN158" t="n">
         <v>0</v>
       </c>
-      <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22797,7 +21172,6 @@
       <c r="K159" t="n">
         <v>1970006.99</v>
       </c>
-      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22806,17 +21180,6 @@
       <c r="N159" t="n">
         <v>1</v>
       </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="n">
         <v>0</v>
       </c>
@@ -22864,7 +21227,6 @@
       <c r="AN159" t="n">
         <v>0</v>
       </c>
-      <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -22927,7 +21289,6 @@
       <c r="K160" t="n">
         <v>2576686.91</v>
       </c>
-      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22936,17 +21297,6 @@
       <c r="N160" t="n">
         <v>1</v>
       </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="n">
         <v>0</v>
       </c>
@@ -22994,7 +21344,6 @@
       <c r="AN160" t="n">
         <v>0</v>
       </c>
-      <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23057,7 +21406,6 @@
       <c r="K161" t="n">
         <v>2928722.65</v>
       </c>
-      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23066,17 +21414,6 @@
       <c r="N161" t="n">
         <v>1</v>
       </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="n">
         <v>0</v>
       </c>
@@ -23124,7 +21461,6 @@
       <c r="AN161" t="n">
         <v>0</v>
       </c>
-      <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23187,7 +21523,6 @@
       <c r="K162" t="n">
         <v>4966964.86</v>
       </c>
-      <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23196,17 +21531,6 @@
       <c r="N162" t="n">
         <v>1</v>
       </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="n">
         <v>0</v>
       </c>
@@ -23254,7 +21578,6 @@
       <c r="AN162" t="n">
         <v>0</v>
       </c>
-      <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23317,7 +21640,6 @@
       <c r="K163" t="n">
         <v>1502475</v>
       </c>
-      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23326,17 +21648,6 @@
       <c r="N163" t="n">
         <v>1</v>
       </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="n">
         <v>0</v>
       </c>
@@ -23384,7 +21695,6 @@
       <c r="AN163" t="n">
         <v>0</v>
       </c>
-      <c r="AO163" t="inlineStr"/>
       <c r="AP163" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23447,7 +21757,6 @@
       <c r="K164" t="n">
         <v>3065598.98</v>
       </c>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23456,17 +21765,6 @@
       <c r="N164" t="n">
         <v>1</v>
       </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="n">
         <v>0</v>
       </c>
@@ -23514,7 +21812,6 @@
       <c r="AN164" t="n">
         <v>0</v>
       </c>
-      <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23577,7 +21874,6 @@
       <c r="K165" t="n">
         <v>730635</v>
       </c>
-      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23586,17 +21882,6 @@
       <c r="N165" t="n">
         <v>1</v>
       </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="n">
         <v>0</v>
       </c>
@@ -23644,7 +21929,6 @@
       <c r="AN165" t="n">
         <v>0</v>
       </c>
-      <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23707,7 +21991,6 @@
       <c r="K166" t="n">
         <v>1202985</v>
       </c>
-      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23716,17 +21999,6 @@
       <c r="N166" t="n">
         <v>1</v>
       </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="n">
         <v>0</v>
       </c>
@@ -23774,7 +22046,6 @@
       <c r="AN166" t="n">
         <v>0</v>
       </c>
-      <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23837,7 +22108,6 @@
       <c r="K167" t="n">
         <v>2374815</v>
       </c>
-      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23846,17 +22116,6 @@
       <c r="N167" t="n">
         <v>1</v>
       </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="n">
         <v>0</v>
       </c>
@@ -23904,7 +22163,6 @@
       <c r="AN167" t="n">
         <v>0</v>
       </c>
-      <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -23967,7 +22225,6 @@
       <c r="K168" t="n">
         <v>3048165</v>
       </c>
-      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23976,17 +22233,6 @@
       <c r="N168" t="n">
         <v>1</v>
       </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="n">
         <v>0</v>
       </c>
@@ -24034,7 +22280,6 @@
       <c r="AN168" t="n">
         <v>0</v>
       </c>
-      <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24097,7 +22342,6 @@
       <c r="K169" t="n">
         <v>2594910</v>
       </c>
-      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24106,17 +22350,6 @@
       <c r="N169" t="n">
         <v>1</v>
       </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="n">
         <v>0</v>
       </c>
@@ -24164,7 +22397,6 @@
       <c r="AN169" t="n">
         <v>0</v>
       </c>
-      <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24227,7 +22459,6 @@
       <c r="K170" t="n">
         <v>2221050</v>
       </c>
-      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24236,17 +22467,6 @@
       <c r="N170" t="n">
         <v>1</v>
       </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="n">
         <v>0</v>
       </c>
@@ -24294,7 +22514,6 @@
       <c r="AN170" t="n">
         <v>0</v>
       </c>
-      <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24357,7 +22576,6 @@
       <c r="K171" t="n">
         <v>2070300</v>
       </c>
-      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24366,17 +22584,6 @@
       <c r="N171" t="n">
         <v>1</v>
       </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="n">
         <v>0</v>
       </c>
@@ -24424,7 +22631,6 @@
       <c r="AN171" t="n">
         <v>0</v>
       </c>
-      <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24487,7 +22693,6 @@
       <c r="K172" t="n">
         <v>2107485</v>
       </c>
-      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24496,17 +22701,6 @@
       <c r="N172" t="n">
         <v>1</v>
       </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
       <c r="Z172" t="n">
         <v>0</v>
       </c>
@@ -24554,7 +22748,6 @@
       <c r="AN172" t="n">
         <v>0</v>
       </c>
-      <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24617,7 +22810,6 @@
       <c r="K173" t="n">
         <v>1402980</v>
       </c>
-      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24626,17 +22818,6 @@
       <c r="N173" t="n">
         <v>1</v>
       </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="n">
         <v>0</v>
       </c>
@@ -24684,7 +22865,6 @@
       <c r="AN173" t="n">
         <v>0</v>
       </c>
-      <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24747,7 +22927,6 @@
       <c r="K174" t="n">
         <v>1430115</v>
       </c>
-      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24756,17 +22935,6 @@
       <c r="N174" t="n">
         <v>1</v>
       </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="n">
         <v>0</v>
       </c>
@@ -24814,7 +22982,6 @@
       <c r="AN174" t="n">
         <v>0</v>
       </c>
-      <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -24877,7 +23044,6 @@
       <c r="K175" t="n">
         <v>462343.27</v>
       </c>
-      <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24886,17 +23052,6 @@
       <c r="N175" t="n">
         <v>1</v>
       </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="n">
         <v>0</v>
       </c>
@@ -24944,7 +23099,6 @@
       <c r="AN175" t="n">
         <v>0</v>
       </c>
-      <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25007,7 +23161,6 @@
       <c r="K176" t="n">
         <v>472895.77</v>
       </c>
-      <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25016,17 +23169,6 @@
       <c r="N176" t="n">
         <v>1</v>
       </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
       <c r="Z176" t="n">
         <v>0</v>
       </c>
@@ -25074,7 +23216,6 @@
       <c r="AN176" t="n">
         <v>0</v>
       </c>
-      <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25137,7 +23278,6 @@
       <c r="K177" t="n">
         <v>770482.17</v>
       </c>
-      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25146,17 +23286,6 @@
       <c r="N177" t="n">
         <v>1</v>
       </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr"/>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
       <c r="Z177" t="n">
         <v>0</v>
       </c>
@@ -25204,7 +23333,6 @@
       <c r="AN177" t="n">
         <v>0</v>
       </c>
-      <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25253,7 +23381,6 @@
       <c r="G178" t="n">
         <v>3</v>
       </c>
-      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
           <t>SOLAR PANEL</t>
@@ -25265,7 +23392,6 @@
       <c r="K178" t="n">
         <v>1506969.15</v>
       </c>
-      <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25274,17 +23400,6 @@
       <c r="N178" t="n">
         <v>1</v>
       </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
       <c r="Z178" t="n">
         <v>0</v>
       </c>
@@ -25332,7 +23447,6 @@
       <c r="AN178" t="n">
         <v>0</v>
       </c>
-      <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25395,7 +23509,6 @@
       <c r="K179" t="n">
         <v>2493419.72</v>
       </c>
-      <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25404,17 +23517,6 @@
       <c r="N179" t="n">
         <v>1</v>
       </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="n">
         <v>0</v>
       </c>
@@ -25462,7 +23564,6 @@
       <c r="AN179" t="n">
         <v>0</v>
       </c>
-      <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25525,7 +23626,6 @@
       <c r="K180" t="n">
         <v>1125863.75</v>
       </c>
-      <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25534,17 +23634,6 @@
       <c r="N180" t="n">
         <v>1</v>
       </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>0</v>
       </c>
@@ -25592,7 +23681,6 @@
       <c r="AN180" t="n">
         <v>0</v>
       </c>
-      <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25655,7 +23743,6 @@
       <c r="K181" t="n">
         <v>919823.54</v>
       </c>
-      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25664,17 +23751,6 @@
       <c r="N181" t="n">
         <v>1</v>
       </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="n">
         <v>0</v>
       </c>
@@ -25722,7 +23798,6 @@
       <c r="AN181" t="n">
         <v>0</v>
       </c>
-      <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25771,7 +23846,6 @@
       <c r="G182" t="n">
         <v>3</v>
       </c>
-      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
           <t>SOLAR PANEL</t>
@@ -25783,7 +23857,6 @@
       <c r="K182" t="n">
         <v>826086.38</v>
       </c>
-      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25792,17 +23865,6 @@
       <c r="N182" t="n">
         <v>1</v>
       </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr"/>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="n">
         <v>0</v>
       </c>
@@ -25850,7 +23912,6 @@
       <c r="AN182" t="n">
         <v>0</v>
       </c>
-      <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -25913,7 +23974,6 @@
       <c r="K183" t="n">
         <v>462343.27</v>
       </c>
-      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -25922,17 +23982,6 @@
       <c r="N183" t="n">
         <v>1</v>
       </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
         <v>0</v>
       </c>
@@ -25980,7 +24029,6 @@
       <c r="AN183" t="n">
         <v>0</v>
       </c>
-      <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26013,7 +24061,6 @@
           <t>Puerto Princesa City</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>Mandaragat - San Miguel Senior HS</t>
@@ -26041,7 +24088,6 @@
       <c r="K184" t="n">
         <v>1472587.37</v>
       </c>
-      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26050,17 +24096,6 @@
       <c r="N184" t="n">
         <v>1</v>
       </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
         <v>0</v>
       </c>
@@ -26108,7 +24143,6 @@
       <c r="AN184" t="n">
         <v>0</v>
       </c>
-      <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26171,7 +24205,6 @@
       <c r="K185" t="n">
         <v>2779446.87</v>
       </c>
-      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26180,17 +24213,6 @@
       <c r="N185" t="n">
         <v>1</v>
       </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
         <v>0</v>
       </c>
@@ -26238,7 +24260,6 @@
       <c r="AN185" t="n">
         <v>0</v>
       </c>
-      <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26301,7 +24322,6 @@
       <c r="K186" t="n">
         <v>6802283.04</v>
       </c>
-      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26310,17 +24330,6 @@
       <c r="N186" t="n">
         <v>1</v>
       </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="n">
         <v>0</v>
       </c>
@@ -26368,7 +24377,6 @@
       <c r="AN186" t="n">
         <v>0</v>
       </c>
-      <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26431,7 +24439,6 @@
       <c r="K187" t="n">
         <v>3735812.41</v>
       </c>
-      <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26440,17 +24447,6 @@
       <c r="N187" t="n">
         <v>1</v>
       </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
         <v>0</v>
       </c>
@@ -26498,7 +24494,6 @@
       <c r="AN187" t="n">
         <v>0</v>
       </c>
-      <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26561,7 +24556,6 @@
       <c r="K188" t="n">
         <v>770482.16</v>
       </c>
-      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26570,17 +24564,6 @@
       <c r="N188" t="n">
         <v>1</v>
       </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="n">
         <v>0</v>
       </c>
@@ -26628,7 +24611,6 @@
       <c r="AN188" t="n">
         <v>0</v>
       </c>
-      <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26677,7 +24659,6 @@
       <c r="G189" t="n">
         <v>3</v>
       </c>
-      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
           <t>UPGRADING</t>
@@ -26689,7 +24670,6 @@
       <c r="K189" t="n">
         <v>1509331.18</v>
       </c>
-      <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26698,17 +24678,6 @@
       <c r="N189" t="n">
         <v>1</v>
       </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="n">
         <v>0</v>
       </c>
@@ -26756,7 +24725,6 @@
       <c r="AN189" t="n">
         <v>0</v>
       </c>
-      <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26819,7 +24787,6 @@
       <c r="K190" t="n">
         <v>590961.71</v>
       </c>
-      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26828,17 +24795,6 @@
       <c r="N190" t="n">
         <v>1</v>
       </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
-      <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="n">
         <v>0</v>
       </c>
@@ -26886,7 +24842,6 @@
       <c r="AN190" t="n">
         <v>0</v>
       </c>
-      <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -26935,7 +24890,6 @@
       <c r="G191" t="n">
         <v>3</v>
       </c>
-      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
           <t>SOLAR PANEL</t>
@@ -26947,7 +24901,6 @@
       <c r="K191" t="n">
         <v>946895.79</v>
       </c>
-      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26956,17 +24909,6 @@
       <c r="N191" t="n">
         <v>1</v>
       </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
-      <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="n">
         <v>0</v>
       </c>
@@ -27014,7 +24956,6 @@
       <c r="AN191" t="n">
         <v>0</v>
       </c>
-      <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27077,7 +25018,6 @@
       <c r="K192" t="n">
         <v>1070770.36</v>
       </c>
-      <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -27086,17 +25026,6 @@
       <c r="N192" t="n">
         <v>1</v>
       </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>0</v>
       </c>
@@ -27144,7 +25073,6 @@
       <c r="AN192" t="n">
         <v>0</v>
       </c>
-      <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -27218,25 +25146,22 @@
       <c r="N193" t="n">
         <v>0.8</v>
       </c>
-      <c r="O193" s="2" t="n">
+      <c r="O193" s="3" t="n">
         <v>43475</v>
       </c>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" s="2" t="n">
+      <c r="S193" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T193" s="2" t="n">
+      <c r="T193" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U193" s="2" t="n">
+      <c r="U193" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V193" s="2" t="n">
+      <c r="V193" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W193" s="2" t="n">
+      <c r="W193" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X193" t="inlineStr">
@@ -27244,7 +25169,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
         <v>0</v>
       </c>
@@ -27292,8 +25216,6 @@
       <c r="AN193" t="n">
         <v>0</v>
       </c>
-      <c r="AO193" t="inlineStr"/>
-      <c r="AP193" t="inlineStr"/>
       <c r="AQ193" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -27362,25 +25284,22 @@
       <c r="N194" t="n">
         <v>0.9</v>
       </c>
-      <c r="O194" s="2" t="n">
+      <c r="O194" s="3" t="n">
         <v>43475</v>
       </c>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" s="2" t="n">
+      <c r="S194" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T194" s="2" t="n">
+      <c r="T194" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U194" s="2" t="n">
+      <c r="U194" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V194" s="2" t="n">
+      <c r="V194" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W194" s="2" t="n">
+      <c r="W194" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X194" t="inlineStr">
@@ -27388,7 +25307,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
         <v>0</v>
       </c>
@@ -27436,8 +25354,6 @@
       <c r="AN194" t="n">
         <v>0</v>
       </c>
-      <c r="AO194" t="inlineStr"/>
-      <c r="AP194" t="inlineStr"/>
       <c r="AQ194" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -27506,25 +25422,22 @@
       <c r="N195" t="n">
         <v>0.8</v>
       </c>
-      <c r="O195" s="2" t="n">
+      <c r="O195" s="3" t="n">
         <v>43475</v>
       </c>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" s="2" t="n">
+      <c r="S195" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T195" s="2" t="n">
+      <c r="T195" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U195" s="2" t="n">
+      <c r="U195" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V195" s="2" t="n">
+      <c r="V195" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W195" s="2" t="n">
+      <c r="W195" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X195" t="inlineStr">
@@ -27532,7 +25445,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="n">
         <v>0</v>
       </c>
@@ -27580,8 +25492,6 @@
       <c r="AN195" t="n">
         <v>0</v>
       </c>
-      <c r="AO195" t="inlineStr"/>
-      <c r="AP195" t="inlineStr"/>
       <c r="AQ195" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -27650,25 +25560,22 @@
       <c r="N196" t="n">
         <v>0.9</v>
       </c>
-      <c r="O196" s="2" t="n">
+      <c r="O196" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" s="2" t="n">
+      <c r="S196" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T196" s="2" t="n">
+      <c r="T196" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U196" s="2" t="n">
+      <c r="U196" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V196" s="2" t="n">
+      <c r="V196" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W196" s="2" t="n">
+      <c r="W196" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X196" t="inlineStr">
@@ -27676,7 +25583,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="n">
         <v>0</v>
       </c>
@@ -27724,8 +25630,6 @@
       <c r="AN196" t="n">
         <v>0</v>
       </c>
-      <c r="AO196" t="inlineStr"/>
-      <c r="AP196" t="inlineStr"/>
       <c r="AQ196" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -27794,25 +25698,22 @@
       <c r="N197" t="n">
         <v>0.8</v>
       </c>
-      <c r="O197" s="2" t="n">
+      <c r="O197" s="3" t="n">
         <v>43475</v>
       </c>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" s="2" t="n">
+      <c r="S197" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T197" s="2" t="n">
+      <c r="T197" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U197" s="2" t="n">
+      <c r="U197" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V197" s="2" t="n">
+      <c r="V197" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W197" s="2" t="n">
+      <c r="W197" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X197" t="inlineStr">
@@ -27820,7 +25721,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
         <v>0</v>
       </c>
@@ -27868,8 +25768,6 @@
       <c r="AN197" t="n">
         <v>0</v>
       </c>
-      <c r="AO197" t="inlineStr"/>
-      <c r="AP197" t="inlineStr"/>
       <c r="AQ197" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -27938,25 +25836,22 @@
       <c r="N198" t="n">
         <v>0.9</v>
       </c>
-      <c r="O198" s="2" t="n">
+      <c r="O198" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" s="2" t="n">
+      <c r="S198" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T198" s="2" t="n">
+      <c r="T198" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U198" s="2" t="n">
+      <c r="U198" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V198" s="2" t="n">
+      <c r="V198" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W198" s="2" t="n">
+      <c r="W198" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X198" t="inlineStr">
@@ -27964,7 +25859,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="n">
         <v>0</v>
       </c>
@@ -28012,8 +25906,6 @@
       <c r="AN198" t="n">
         <v>0</v>
       </c>
-      <c r="AO198" t="inlineStr"/>
-      <c r="AP198" t="inlineStr"/>
       <c r="AQ198" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28082,25 +25974,22 @@
       <c r="N199" t="n">
         <v>0.9</v>
       </c>
-      <c r="O199" s="2" t="n">
+      <c r="O199" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" s="2" t="n">
+      <c r="S199" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T199" s="2" t="n">
+      <c r="T199" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U199" s="2" t="n">
+      <c r="U199" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V199" s="2" t="n">
+      <c r="V199" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W199" s="2" t="n">
+      <c r="W199" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X199" t="inlineStr">
@@ -28108,7 +25997,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="n">
         <v>0</v>
       </c>
@@ -28156,8 +26044,6 @@
       <c r="AN199" t="n">
         <v>0</v>
       </c>
-      <c r="AO199" t="inlineStr"/>
-      <c r="AP199" t="inlineStr"/>
       <c r="AQ199" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28226,25 +26112,22 @@
       <c r="N200" t="n">
         <v>0.9</v>
       </c>
-      <c r="O200" s="2" t="n">
+      <c r="O200" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" s="2" t="n">
+      <c r="S200" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T200" s="2" t="n">
+      <c r="T200" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U200" s="2" t="n">
+      <c r="U200" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V200" s="2" t="n">
+      <c r="V200" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W200" s="2" t="n">
+      <c r="W200" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X200" t="inlineStr">
@@ -28252,7 +26135,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="n">
         <v>0</v>
       </c>
@@ -28300,8 +26182,6 @@
       <c r="AN200" t="n">
         <v>0</v>
       </c>
-      <c r="AO200" t="inlineStr"/>
-      <c r="AP200" t="inlineStr"/>
       <c r="AQ200" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28370,25 +26250,22 @@
       <c r="N201" t="n">
         <v>0.9</v>
       </c>
-      <c r="O201" s="2" t="n">
+      <c r="O201" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" s="2" t="n">
+      <c r="S201" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T201" s="2" t="n">
+      <c r="T201" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U201" s="2" t="n">
+      <c r="U201" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V201" s="2" t="n">
+      <c r="V201" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W201" s="2" t="n">
+      <c r="W201" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X201" t="inlineStr">
@@ -28396,7 +26273,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y201" t="inlineStr"/>
       <c r="Z201" t="n">
         <v>0</v>
       </c>
@@ -28444,8 +26320,6 @@
       <c r="AN201" t="n">
         <v>0</v>
       </c>
-      <c r="AO201" t="inlineStr"/>
-      <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28514,25 +26388,22 @@
       <c r="N202" t="n">
         <v>0.9</v>
       </c>
-      <c r="O202" s="2" t="n">
+      <c r="O202" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" s="2" t="n">
+      <c r="S202" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T202" s="2" t="n">
+      <c r="T202" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U202" s="2" t="n">
+      <c r="U202" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V202" s="2" t="n">
+      <c r="V202" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W202" s="2" t="n">
+      <c r="W202" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X202" t="inlineStr">
@@ -28540,7 +26411,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y202" t="inlineStr"/>
       <c r="Z202" t="n">
         <v>0</v>
       </c>
@@ -28588,8 +26458,6 @@
       <c r="AN202" t="n">
         <v>0</v>
       </c>
-      <c r="AO202" t="inlineStr"/>
-      <c r="AP202" t="inlineStr"/>
       <c r="AQ202" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28658,25 +26526,22 @@
       <c r="N203" t="n">
         <v>0.9</v>
       </c>
-      <c r="O203" s="2" t="n">
+      <c r="O203" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" s="2" t="n">
+      <c r="S203" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T203" s="2" t="n">
+      <c r="T203" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U203" s="2" t="n">
+      <c r="U203" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V203" s="2" t="n">
+      <c r="V203" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W203" s="2" t="n">
+      <c r="W203" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X203" t="inlineStr">
@@ -28684,7 +26549,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y203" t="inlineStr"/>
       <c r="Z203" t="n">
         <v>0</v>
       </c>
@@ -28732,8 +26596,6 @@
       <c r="AN203" t="n">
         <v>0</v>
       </c>
-      <c r="AO203" t="inlineStr"/>
-      <c r="AP203" t="inlineStr"/>
       <c r="AQ203" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28802,25 +26664,22 @@
       <c r="N204" t="n">
         <v>0.9</v>
       </c>
-      <c r="O204" s="2" t="n">
+      <c r="O204" s="3" t="n">
         <v>43595</v>
       </c>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" s="2" t="n">
+      <c r="S204" s="3" t="n">
         <v>43234</v>
       </c>
-      <c r="T204" s="2" t="n">
+      <c r="T204" s="3" t="n">
         <v>43241</v>
       </c>
-      <c r="U204" s="2" t="n">
+      <c r="U204" s="3" t="n">
         <v>43262</v>
       </c>
-      <c r="V204" s="2" t="n">
+      <c r="V204" s="3" t="n">
         <v>43297</v>
       </c>
-      <c r="W204" s="2" t="n">
+      <c r="W204" s="3" t="n">
         <v>43318</v>
       </c>
       <c r="X204" t="inlineStr">
@@ -28828,7 +26687,6 @@
           <t>6 Jewels Construction</t>
         </is>
       </c>
-      <c r="Y204" t="inlineStr"/>
       <c r="Z204" t="n">
         <v>0</v>
       </c>
@@ -28876,8 +26734,6 @@
       <c r="AN204" t="n">
         <v>0</v>
       </c>
-      <c r="AO204" t="inlineStr"/>
-      <c r="AP204" t="inlineStr"/>
       <c r="AQ204" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -28929,7 +26785,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>1595784.93</v>
       </c>
@@ -28949,9 +26804,6 @@
           <t>November 1, 2019</t>
         </is>
       </c>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr">
         <is>
           <t>November 12, 2019</t>
@@ -28982,7 +26834,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y205" t="inlineStr"/>
       <c r="Z205" t="n">
         <v>0</v>
       </c>
@@ -29030,7 +26881,6 @@
       <c r="AN205" t="n">
         <v>0</v>
       </c>
-      <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -29111,9 +26961,6 @@
           <t>January 10, 2020</t>
         </is>
       </c>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr">
         <is>
           <t>September 30, 2019</t>
@@ -29144,7 +26991,6 @@
           <t>CMSEL Construction and Developer</t>
         </is>
       </c>
-      <c r="Y206" t="inlineStr"/>
       <c r="Z206" t="n">
         <v>0</v>
       </c>
@@ -29192,7 +27038,6 @@
       <c r="AN206" t="n">
         <v>0</v>
       </c>
-      <c r="AO206" t="inlineStr"/>
       <c r="AP206" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -29249,7 +27094,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>2056773.01</v>
       </c>
@@ -29274,7 +27118,6 @@
           <t>Mar. 6, 2020</t>
         </is>
       </c>
-      <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr">
         <is>
           <t>098-2019</t>
@@ -29310,7 +27153,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y207" t="inlineStr"/>
       <c r="Z207" t="n">
         <v>0</v>
       </c>
@@ -29358,7 +27200,6 @@
       <c r="AN207" t="n">
         <v>0</v>
       </c>
-      <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -29415,7 +27256,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>2130617.28</v>
       </c>
@@ -29440,7 +27280,6 @@
           <t>Mar. 6, 2020</t>
         </is>
       </c>
-      <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr">
         <is>
           <t>09-2019</t>
@@ -29476,7 +27315,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y208" t="inlineStr"/>
       <c r="Z208" t="n">
         <v>0</v>
       </c>
@@ -29524,7 +27362,6 @@
       <c r="AN208" t="n">
         <v>0</v>
       </c>
-      <c r="AO208" t="inlineStr"/>
       <c r="AP208" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -29581,7 +27418,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
         <v>2511941.82</v>
       </c>
@@ -29606,7 +27442,6 @@
           <t>Mar. 6, 2020</t>
         </is>
       </c>
-      <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr">
         <is>
           <t>099-2019</t>
@@ -29642,7 +27477,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y209" t="inlineStr"/>
       <c r="Z209" t="n">
         <v>0</v>
       </c>
@@ -29690,7 +27524,6 @@
       <c r="AN209" t="n">
         <v>0</v>
       </c>
-      <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -29747,7 +27580,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>1304954.82</v>
       </c>
@@ -29772,7 +27604,6 @@
           <t>Mar. 6, 2020</t>
         </is>
       </c>
-      <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr">
         <is>
           <t>099-2019</t>
@@ -29808,7 +27639,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y210" t="inlineStr"/>
       <c r="Z210" t="n">
         <v>0</v>
       </c>
@@ -29856,7 +27686,6 @@
       <c r="AN210" t="n">
         <v>0</v>
       </c>
-      <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -29913,7 +27742,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>1007628.26</v>
       </c>
@@ -29938,7 +27766,6 @@
           <t>Mar. 6, 2020</t>
         </is>
       </c>
-      <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr">
         <is>
           <t>099-2019</t>
@@ -29974,7 +27801,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y211" t="inlineStr"/>
       <c r="Z211" t="n">
         <v>0</v>
       </c>
@@ -30022,7 +27848,6 @@
       <c r="AN211" t="n">
         <v>0</v>
       </c>
-      <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30079,7 +27904,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>237655.81</v>
       </c>
@@ -30104,7 +27928,6 @@
           <t>Mar. 6, 2020</t>
         </is>
       </c>
-      <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr">
         <is>
           <t>099-2019</t>
@@ -30140,7 +27963,6 @@
           <t>ETVR Trading and Construction</t>
         </is>
       </c>
-      <c r="Y212" t="inlineStr"/>
       <c r="Z212" t="n">
         <v>0</v>
       </c>
@@ -30188,7 +28010,6 @@
       <c r="AN212" t="n">
         <v>0</v>
       </c>
-      <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30245,11 +28066,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>2225476.75</v>
       </c>
-      <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -30258,17 +28077,6 @@
       <c r="N213" t="n">
         <v>1</v>
       </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="inlineStr"/>
-      <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr"/>
-      <c r="W213" t="inlineStr"/>
-      <c r="X213" t="inlineStr"/>
-      <c r="Y213" t="inlineStr"/>
       <c r="Z213" t="n">
         <v>0</v>
       </c>
@@ -30316,7 +28124,6 @@
       <c r="AN213" t="n">
         <v>0</v>
       </c>
-      <c r="AO213" t="inlineStr"/>
       <c r="AP213" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30373,11 +28180,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>2211333.71</v>
       </c>
-      <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -30386,17 +28191,6 @@
       <c r="N214" t="n">
         <v>1</v>
       </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
-      <c r="W214" t="inlineStr"/>
-      <c r="X214" t="inlineStr"/>
-      <c r="Y214" t="inlineStr"/>
       <c r="Z214" t="n">
         <v>0</v>
       </c>
@@ -30444,7 +28238,6 @@
       <c r="AN214" t="n">
         <v>0</v>
       </c>
-      <c r="AO214" t="inlineStr"/>
       <c r="AP214" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30501,11 +28294,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>2297517.98</v>
       </c>
-      <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -30514,17 +28305,6 @@
       <c r="N215" t="n">
         <v>1</v>
       </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="inlineStr"/>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
-      <c r="X215" t="inlineStr"/>
-      <c r="Y215" t="inlineStr"/>
       <c r="Z215" t="n">
         <v>0</v>
       </c>
@@ -30572,7 +28352,6 @@
       <c r="AN215" t="n">
         <v>0</v>
       </c>
-      <c r="AO215" t="inlineStr"/>
       <c r="AP215" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30629,11 +28408,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
         <v>2197393.11</v>
       </c>
-      <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -30642,17 +28419,6 @@
       <c r="N216" t="n">
         <v>1</v>
       </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="inlineStr"/>
-      <c r="T216" t="inlineStr"/>
-      <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr"/>
-      <c r="W216" t="inlineStr"/>
-      <c r="X216" t="inlineStr"/>
-      <c r="Y216" t="inlineStr"/>
       <c r="Z216" t="n">
         <v>0</v>
       </c>
@@ -30700,7 +28466,6 @@
       <c r="AN216" t="n">
         <v>0</v>
       </c>
-      <c r="AO216" t="inlineStr"/>
       <c r="AP216" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30757,11 +28522,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
         <v>2130380.75</v>
       </c>
-      <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -30770,17 +28533,6 @@
       <c r="N217" t="n">
         <v>1</v>
       </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="inlineStr"/>
-      <c r="T217" t="inlineStr"/>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
-      <c r="W217" t="inlineStr"/>
-      <c r="X217" t="inlineStr"/>
-      <c r="Y217" t="inlineStr"/>
       <c r="Z217" t="n">
         <v>0</v>
       </c>
@@ -30828,7 +28580,6 @@
       <c r="AN217" t="n">
         <v>0</v>
       </c>
-      <c r="AO217" t="inlineStr"/>
       <c r="AP217" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -30885,11 +28636,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
         <v>1147438.92</v>
       </c>
-      <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -30898,17 +28647,6 @@
       <c r="N218" t="n">
         <v>1</v>
       </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="inlineStr"/>
-      <c r="T218" t="inlineStr"/>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
-      <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="n">
         <v>0</v>
       </c>
@@ -30956,7 +28694,6 @@
       <c r="AN218" t="n">
         <v>0</v>
       </c>
-      <c r="AO218" t="inlineStr"/>
       <c r="AP218" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31013,11 +28750,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
         <v>2158156.67</v>
       </c>
-      <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31026,17 +28761,6 @@
       <c r="N219" t="n">
         <v>1</v>
       </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="inlineStr"/>
-      <c r="T219" t="inlineStr"/>
-      <c r="U219" t="inlineStr"/>
-      <c r="V219" t="inlineStr"/>
-      <c r="W219" t="inlineStr"/>
-      <c r="X219" t="inlineStr"/>
-      <c r="Y219" t="inlineStr"/>
       <c r="Z219" t="n">
         <v>0</v>
       </c>
@@ -31084,7 +28808,6 @@
       <c r="AN219" t="n">
         <v>0</v>
       </c>
-      <c r="AO219" t="inlineStr"/>
       <c r="AP219" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31141,11 +28864,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
         <v>4392551.95</v>
       </c>
-      <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31154,17 +28875,6 @@
       <c r="N220" t="n">
         <v>1</v>
       </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="inlineStr"/>
-      <c r="T220" t="inlineStr"/>
-      <c r="U220" t="inlineStr"/>
-      <c r="V220" t="inlineStr"/>
-      <c r="W220" t="inlineStr"/>
-      <c r="X220" t="inlineStr"/>
-      <c r="Y220" t="inlineStr"/>
       <c r="Z220" t="n">
         <v>0</v>
       </c>
@@ -31212,7 +28922,6 @@
       <c r="AN220" t="n">
         <v>0</v>
       </c>
-      <c r="AO220" t="inlineStr"/>
       <c r="AP220" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31269,11 +28978,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
         <v>571845.0600000001</v>
       </c>
-      <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31282,21 +28989,11 @@
       <c r="N221" t="n">
         <v>1</v>
       </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr">
         <is>
           <t>Elec2020-RIV-B-Calapan City -001</t>
         </is>
       </c>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="inlineStr"/>
-      <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr"/>
-      <c r="V221" t="inlineStr"/>
-      <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
-      <c r="Y221" t="inlineStr"/>
       <c r="Z221" t="n">
         <v>0</v>
       </c>
@@ -31344,7 +29041,6 @@
       <c r="AN221" t="n">
         <v>0</v>
       </c>
-      <c r="AO221" t="inlineStr"/>
       <c r="AP221" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31401,11 +29097,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
         <v>1145148.62</v>
       </c>
-      <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31414,21 +29108,11 @@
       <c r="N222" t="n">
         <v>1</v>
       </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr">
         <is>
           <t>Elec2020-RIV-B-Calapan City -002</t>
         </is>
       </c>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="inlineStr"/>
-      <c r="T222" t="inlineStr"/>
-      <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr"/>
-      <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr"/>
       <c r="Z222" t="n">
         <v>0</v>
       </c>
@@ -31476,7 +29160,6 @@
       <c r="AN222" t="n">
         <v>0</v>
       </c>
-      <c r="AO222" t="inlineStr"/>
       <c r="AP222" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31528,12 +29211,9 @@
       <c r="H223" t="n">
         <v>1</v>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
         <v>967324.13</v>
       </c>
-      <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31542,21 +29222,11 @@
       <c r="N223" t="n">
         <v>1</v>
       </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr">
         <is>
           <t>ELEC2020-RIV B - Marinduque - 001</t>
         </is>
       </c>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr"/>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr"/>
-      <c r="W223" t="inlineStr"/>
-      <c r="X223" t="inlineStr"/>
-      <c r="Y223" t="inlineStr"/>
       <c r="Z223" t="n">
         <v>0</v>
       </c>
@@ -31593,14 +29263,12 @@
       <c r="AK223" t="n">
         <v>0</v>
       </c>
-      <c r="AL223" t="inlineStr"/>
       <c r="AM223" t="n">
         <v>1</v>
       </c>
       <c r="AN223" t="n">
         <v>0</v>
       </c>
-      <c r="AO223" t="inlineStr"/>
       <c r="AP223" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31652,12 +29320,9 @@
       <c r="H224" t="n">
         <v>1</v>
       </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
         <v>829485.25</v>
       </c>
-      <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31666,21 +29331,11 @@
       <c r="N224" t="n">
         <v>1</v>
       </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr">
         <is>
           <t>ELEC2020-RIV B - Marinduque - 004</t>
         </is>
       </c>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="inlineStr"/>
-      <c r="T224" t="inlineStr"/>
-      <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr"/>
-      <c r="W224" t="inlineStr"/>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr"/>
       <c r="Z224" t="n">
         <v>0</v>
       </c>
@@ -31717,14 +29372,12 @@
       <c r="AK224" t="n">
         <v>0</v>
       </c>
-      <c r="AL224" t="inlineStr"/>
       <c r="AM224" t="n">
         <v>1</v>
       </c>
       <c r="AN224" t="n">
         <v>0</v>
       </c>
-      <c r="AO224" t="inlineStr"/>
       <c r="AP224" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31776,12 +29429,9 @@
       <c r="H225" t="n">
         <v>1</v>
       </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
         <v>718943.51</v>
       </c>
-      <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -31790,21 +29440,11 @@
       <c r="N225" t="n">
         <v>1</v>
       </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr">
         <is>
           <t>ELEC2020-RIV B - Marinduque - 005</t>
         </is>
       </c>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="inlineStr"/>
-      <c r="T225" t="inlineStr"/>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
-      <c r="W225" t="inlineStr"/>
-      <c r="X225" t="inlineStr"/>
-      <c r="Y225" t="inlineStr"/>
       <c r="Z225" t="n">
         <v>0</v>
       </c>
@@ -31841,14 +29481,12 @@
       <c r="AK225" t="n">
         <v>0</v>
       </c>
-      <c r="AL225" t="inlineStr"/>
       <c r="AM225" t="n">
         <v>1</v>
       </c>
       <c r="AN225" t="n">
         <v>0</v>
       </c>
-      <c r="AO225" t="inlineStr"/>
       <c r="AP225" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -31900,8 +29538,6 @@
       <c r="H226" t="n">
         <v>1</v>
       </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
         <v>929677.83</v>
       </c>
@@ -31966,7 +29602,6 @@
           <t>CMSEL Const. &amp; Developer</t>
         </is>
       </c>
-      <c r="Y226" t="inlineStr"/>
       <c r="Z226" t="n">
         <v>0</v>
       </c>
@@ -32003,14 +29638,12 @@
       <c r="AK226" t="n">
         <v>0</v>
       </c>
-      <c r="AL226" t="inlineStr"/>
       <c r="AM226" t="n">
         <v>1</v>
       </c>
       <c r="AN226" t="n">
         <v>0</v>
       </c>
-      <c r="AO226" t="inlineStr"/>
       <c r="AP226" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32062,8 +29695,6 @@
       <c r="H227" t="n">
         <v>1</v>
       </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
         <v>2713634.88</v>
       </c>
@@ -32128,7 +29759,6 @@
           <t>CMSEL Const. &amp; Developer</t>
         </is>
       </c>
-      <c r="Y227" t="inlineStr"/>
       <c r="Z227" t="n">
         <v>0</v>
       </c>
@@ -32165,14 +29795,12 @@
       <c r="AK227" t="n">
         <v>0</v>
       </c>
-      <c r="AL227" t="inlineStr"/>
       <c r="AM227" t="n">
         <v>1</v>
       </c>
       <c r="AN227" t="n">
         <v>0</v>
       </c>
-      <c r="AO227" t="inlineStr"/>
       <c r="AP227" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32224,8 +29852,6 @@
       <c r="H228" t="n">
         <v>1</v>
       </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
         <v>1175848.45</v>
       </c>
@@ -32290,7 +29916,6 @@
           <t>ETVR Trading &amp; Const.</t>
         </is>
       </c>
-      <c r="Y228" t="inlineStr"/>
       <c r="Z228" t="n">
         <v>0</v>
       </c>
@@ -32327,14 +29952,12 @@
       <c r="AK228" t="n">
         <v>0</v>
       </c>
-      <c r="AL228" t="inlineStr"/>
       <c r="AM228" t="n">
         <v>1</v>
       </c>
       <c r="AN228" t="n">
         <v>0</v>
       </c>
-      <c r="AO228" t="inlineStr"/>
       <c r="AP228" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32391,7 +30014,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
         <v>1102581.15</v>
       </c>
@@ -32456,7 +30078,6 @@
           <t>TCC Powerserve Trading and Eng'g. Services</t>
         </is>
       </c>
-      <c r="Y229" t="inlineStr"/>
       <c r="Z229" t="n">
         <v>0</v>
       </c>
@@ -32504,7 +30125,6 @@
       <c r="AN229" t="n">
         <v>0</v>
       </c>
-      <c r="AO229" t="inlineStr"/>
       <c r="AP229" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32561,7 +30181,6 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
         <v>1550236.69</v>
       </c>
@@ -32626,7 +30245,6 @@
           <t>TCC Powerserve Trading and Eng'g. Services</t>
         </is>
       </c>
-      <c r="Y230" t="inlineStr"/>
       <c r="Z230" t="n">
         <v>0</v>
       </c>
@@ -32674,7 +30292,6 @@
       <c r="AN230" t="n">
         <v>0</v>
       </c>
-      <c r="AO230" t="inlineStr"/>
       <c r="AP230" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32731,11 +30348,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
         <v>2569207.37</v>
       </c>
-      <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -32744,21 +30359,11 @@
       <c r="N231" t="n">
         <v>1</v>
       </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
       <c r="Q231" t="inlineStr">
         <is>
           <t>Elec2020-RIVB-PALAWAN-029</t>
         </is>
       </c>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
-      <c r="Y231" t="inlineStr"/>
       <c r="Z231" t="n">
         <v>0</v>
       </c>
@@ -32795,14 +30400,12 @@
       <c r="AK231" t="n">
         <v>0</v>
       </c>
-      <c r="AL231" t="inlineStr"/>
       <c r="AM231" t="n">
         <v>1</v>
       </c>
       <c r="AN231" t="n">
         <v>0</v>
       </c>
-      <c r="AO231" t="inlineStr"/>
       <c r="AP231" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32859,11 +30462,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
         <v>1195876.16</v>
       </c>
-      <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -32872,21 +30473,11 @@
       <c r="N232" t="n">
         <v>1</v>
       </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr">
         <is>
           <t>Elec2020-RIVB-PALAWAN-030</t>
         </is>
       </c>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="inlineStr"/>
-      <c r="T232" t="inlineStr"/>
-      <c r="U232" t="inlineStr"/>
-      <c r="V232" t="inlineStr"/>
-      <c r="W232" t="inlineStr"/>
-      <c r="X232" t="inlineStr"/>
-      <c r="Y232" t="inlineStr"/>
       <c r="Z232" t="n">
         <v>0</v>
       </c>
@@ -32923,14 +30514,12 @@
       <c r="AK232" t="n">
         <v>0</v>
       </c>
-      <c r="AL232" t="inlineStr"/>
       <c r="AM232" t="n">
         <v>1</v>
       </c>
       <c r="AN232" t="n">
         <v>0</v>
       </c>
-      <c r="AO232" t="inlineStr"/>
       <c r="AP232" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -32987,11 +30576,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
         <v>1008565.24</v>
       </c>
-      <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33000,21 +30587,11 @@
       <c r="N233" t="n">
         <v>1</v>
       </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr">
         <is>
           <t>Elec2020-RIVB-PALAWAN-031</t>
         </is>
       </c>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="inlineStr"/>
-      <c r="T233" t="inlineStr"/>
-      <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr"/>
-      <c r="X233" t="inlineStr"/>
-      <c r="Y233" t="inlineStr"/>
       <c r="Z233" t="n">
         <v>0</v>
       </c>
@@ -33051,14 +30628,12 @@
       <c r="AK233" t="n">
         <v>0</v>
       </c>
-      <c r="AL233" t="inlineStr"/>
       <c r="AM233" t="n">
         <v>1</v>
       </c>
       <c r="AN233" t="n">
         <v>0</v>
       </c>
-      <c r="AO233" t="inlineStr"/>
       <c r="AP233" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33115,11 +30690,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
         <v>1274852.97</v>
       </c>
-      <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33128,21 +30701,11 @@
       <c r="N234" t="n">
         <v>1</v>
       </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr">
         <is>
           <t>Elec2020-RIVB-PALAWAN-032</t>
         </is>
       </c>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="inlineStr"/>
-      <c r="T234" t="inlineStr"/>
-      <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
-      <c r="W234" t="inlineStr"/>
-      <c r="X234" t="inlineStr"/>
-      <c r="Y234" t="inlineStr"/>
       <c r="Z234" t="n">
         <v>0</v>
       </c>
@@ -33179,14 +30742,12 @@
       <c r="AK234" t="n">
         <v>0</v>
       </c>
-      <c r="AL234" t="inlineStr"/>
       <c r="AM234" t="n">
         <v>1</v>
       </c>
       <c r="AN234" t="n">
         <v>0</v>
       </c>
-      <c r="AO234" t="inlineStr"/>
       <c r="AP234" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33243,11 +30804,9 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
         <v>856352.76</v>
       </c>
-      <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33256,21 +30815,11 @@
       <c r="N235" t="n">
         <v>1</v>
       </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
       <c r="Q235" t="inlineStr">
         <is>
           <t>Elec2020-RIVB-PALAWAN-025</t>
         </is>
       </c>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="inlineStr"/>
-      <c r="T235" t="inlineStr"/>
-      <c r="U235" t="inlineStr"/>
-      <c r="V235" t="inlineStr"/>
-      <c r="W235" t="inlineStr"/>
-      <c r="X235" t="inlineStr"/>
-      <c r="Y235" t="inlineStr"/>
       <c r="Z235" t="n">
         <v>0</v>
       </c>
@@ -33307,14 +30856,12 @@
       <c r="AK235" t="n">
         <v>0</v>
       </c>
-      <c r="AL235" t="inlineStr"/>
       <c r="AM235" t="n">
         <v>1</v>
       </c>
       <c r="AN235" t="n">
         <v>0</v>
       </c>
-      <c r="AO235" t="inlineStr"/>
       <c r="AP235" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33366,12 +30913,9 @@
       <c r="H236" t="n">
         <v>1</v>
       </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
         <v>1777613.88</v>
       </c>
-      <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33380,21 +30924,11 @@
       <c r="N236" t="n">
         <v>1</v>
       </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
       <c r="Q236" t="inlineStr">
         <is>
           <t>ELEC2020-RIV-B-PUERTO PRINCESA -003</t>
         </is>
       </c>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="inlineStr"/>
-      <c r="T236" t="inlineStr"/>
-      <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
-      <c r="W236" t="inlineStr"/>
-      <c r="X236" t="inlineStr"/>
-      <c r="Y236" t="inlineStr"/>
       <c r="Z236" t="n">
         <v>0</v>
       </c>
@@ -33431,14 +30965,12 @@
       <c r="AK236" t="n">
         <v>0</v>
       </c>
-      <c r="AL236" t="inlineStr"/>
       <c r="AM236" t="n">
         <v>1</v>
       </c>
       <c r="AN236" t="n">
         <v>0</v>
       </c>
-      <c r="AO236" t="inlineStr"/>
       <c r="AP236" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33490,12 +31022,9 @@
       <c r="H237" t="n">
         <v>1</v>
       </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
         <v>653089.58</v>
       </c>
-      <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33509,13 +31038,11 @@
           <t>January 3, 2021</t>
         </is>
       </c>
-      <c r="P237" t="inlineStr"/>
       <c r="Q237" t="inlineStr">
         <is>
           <t>ELEC2020-RIV-B-PUERTO PRINCESA -001</t>
         </is>
       </c>
-      <c r="R237" t="inlineStr"/>
       <c r="S237" t="inlineStr">
         <is>
           <t>Nov. 26, 2019</t>
@@ -33546,7 +31073,6 @@
           <t>Ian Jason Construction and Supply</t>
         </is>
       </c>
-      <c r="Y237" t="inlineStr"/>
       <c r="Z237" t="n">
         <v>0</v>
       </c>
@@ -33583,14 +31109,12 @@
       <c r="AK237" t="n">
         <v>0</v>
       </c>
-      <c r="AL237" t="inlineStr"/>
       <c r="AM237" t="n">
         <v>1</v>
       </c>
       <c r="AN237" t="n">
         <v>0</v>
       </c>
-      <c r="AO237" t="inlineStr"/>
       <c r="AP237" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33642,12 +31166,9 @@
       <c r="H238" t="n">
         <v>1</v>
       </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
         <v>1801632.05</v>
       </c>
-      <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33661,13 +31182,11 @@
           <t>January 3, 2021</t>
         </is>
       </c>
-      <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr">
         <is>
           <t>ELEC2020-RIV-B-PUERTO PRINCESA -002</t>
         </is>
       </c>
-      <c r="R238" t="inlineStr"/>
       <c r="S238" t="inlineStr">
         <is>
           <t>Nov. 26, 2019</t>
@@ -33698,7 +31217,6 @@
           <t>Ian Jason Construction and Supply</t>
         </is>
       </c>
-      <c r="Y238" t="inlineStr"/>
       <c r="Z238" t="n">
         <v>0</v>
       </c>
@@ -33735,14 +31253,12 @@
       <c r="AK238" t="n">
         <v>0</v>
       </c>
-      <c r="AL238" t="inlineStr"/>
       <c r="AM238" t="n">
         <v>1</v>
       </c>
       <c r="AN238" t="n">
         <v>0</v>
       </c>
-      <c r="AO238" t="inlineStr"/>
       <c r="AP238" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33799,11 +31315,9 @@
           <t>Electrification of Un-Energized Schools and Modernization of Electrical Systems of On-Grid Schools</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
         <v>1795333.47</v>
       </c>
-      <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33812,8 +31326,6 @@
       <c r="N239" t="n">
         <v>1</v>
       </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr">
         <is>
           <t>Elec2020-RIV-B-ROMBLON-006</t>
@@ -33824,19 +31336,19 @@
           <t>INF-EUP-2021-07</t>
         </is>
       </c>
-      <c r="S239" s="2" t="n">
+      <c r="S239" s="3" t="n">
         <v>44498</v>
       </c>
-      <c r="T239" s="2" t="n">
+      <c r="T239" s="3" t="n">
         <v>44504</v>
       </c>
-      <c r="U239" s="2" t="n">
+      <c r="U239" s="3" t="n">
         <v>44508</v>
       </c>
-      <c r="V239" s="2" t="n">
+      <c r="V239" s="3" t="n">
         <v>44540</v>
       </c>
-      <c r="W239" s="2" t="n">
+      <c r="W239" s="3" t="n">
         <v>44589</v>
       </c>
       <c r="X239" t="inlineStr">
@@ -33885,14 +31397,12 @@
       <c r="AK239" t="n">
         <v>0</v>
       </c>
-      <c r="AL239" t="inlineStr"/>
       <c r="AM239" t="n">
         <v>1</v>
       </c>
       <c r="AN239" t="n">
         <v>0</v>
       </c>
-      <c r="AO239" t="inlineStr"/>
       <c r="AP239" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -33944,12 +31454,9 @@
       <c r="H240" t="n">
         <v>1</v>
       </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
         <v>4253061.64</v>
       </c>
-      <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -33958,21 +31465,11 @@
       <c r="N240" t="n">
         <v>1</v>
       </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr">
         <is>
           <t>Elec2020-RIV-B-ROMBLON-007</t>
         </is>
       </c>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="inlineStr"/>
-      <c r="T240" t="inlineStr"/>
-      <c r="U240" t="inlineStr"/>
-      <c r="V240" t="inlineStr"/>
-      <c r="W240" t="inlineStr"/>
-      <c r="X240" t="inlineStr"/>
-      <c r="Y240" t="inlineStr"/>
       <c r="Z240" t="n">
         <v>0</v>
       </c>
@@ -34009,14 +31506,12 @@
       <c r="AK240" t="n">
         <v>0</v>
       </c>
-      <c r="AL240" t="inlineStr"/>
       <c r="AM240" t="n">
         <v>1</v>
       </c>
       <c r="AN240" t="n">
         <v>0</v>
       </c>
-      <c r="AO240" t="inlineStr"/>
       <c r="AP240" t="inlineStr">
         <is>
           <t>previous years</t>
@@ -34081,7 +31576,6 @@
       <c r="K241" t="n">
         <v>1490439.83</v>
       </c>
-      <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -34090,16 +31584,6 @@
       <c r="N241" t="n">
         <v>1</v>
       </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="inlineStr"/>
-      <c r="T241" t="inlineStr"/>
-      <c r="U241" t="inlineStr"/>
-      <c r="V241" t="inlineStr"/>
-      <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
       <c r="Y241" t="inlineStr">
         <is>
           <t>Obligated</t>
@@ -34141,14 +31625,12 @@
       <c r="AK241" t="n">
         <v>0</v>
       </c>
-      <c r="AL241" t="inlineStr"/>
       <c r="AM241" t="n">
         <v>1</v>
       </c>
       <c r="AN241" t="n">
         <v>0</v>
       </c>
-      <c r="AO241" t="inlineStr"/>
       <c r="AP241" t="n">
         <v>2.25</v>
       </c>
@@ -34211,7 +31693,6 @@
       <c r="K242" t="n">
         <v>1204739.14</v>
       </c>
-      <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -34220,16 +31701,6 @@
       <c r="N242" t="n">
         <v>1</v>
       </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
-      <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr"/>
-      <c r="W242" t="inlineStr"/>
-      <c r="X242" t="inlineStr"/>
       <c r="Y242" t="inlineStr">
         <is>
           <t>Obligated</t>
@@ -34271,14 +31742,12 @@
       <c r="AK242" t="n">
         <v>0</v>
       </c>
-      <c r="AL242" t="inlineStr"/>
       <c r="AM242" t="n">
         <v>1</v>
       </c>
       <c r="AN242" t="n">
         <v>0</v>
       </c>
-      <c r="AO242" t="inlineStr"/>
       <c r="AP242" t="n">
         <v>2.25</v>
       </c>
@@ -34341,7 +31810,6 @@
       <c r="K243" t="n">
         <v>679038.39</v>
       </c>
-      <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -34350,16 +31818,6 @@
       <c r="N243" t="n">
         <v>1</v>
       </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="inlineStr"/>
-      <c r="T243" t="inlineStr"/>
-      <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr"/>
-      <c r="W243" t="inlineStr"/>
-      <c r="X243" t="inlineStr"/>
       <c r="Y243" t="inlineStr">
         <is>
           <t>Obligated</t>
@@ -34401,14 +31859,12 @@
       <c r="AK243" t="n">
         <v>0</v>
       </c>
-      <c r="AL243" t="inlineStr"/>
       <c r="AM243" t="n">
         <v>1</v>
       </c>
       <c r="AN243" t="n">
         <v>0</v>
       </c>
-      <c r="AO243" t="inlineStr"/>
       <c r="AP243" t="n">
         <v>2.25</v>
       </c>
@@ -34471,7 +31927,6 @@
       <c r="K244" t="n">
         <v>571490.34</v>
       </c>
-      <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -34480,16 +31935,6 @@
       <c r="N244" t="n">
         <v>1</v>
       </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="inlineStr"/>
-      <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
-      <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr"/>
       <c r="Y244" t="inlineStr">
         <is>
           <t>Obligated</t>
@@ -34531,14 +31976,12 @@
       <c r="AK244" t="n">
         <v>0</v>
       </c>
-      <c r="AL244" t="inlineStr"/>
       <c r="AM244" t="n">
         <v>1</v>
       </c>
       <c r="AN244" t="n">
         <v>0</v>
       </c>
-      <c r="AO244" t="inlineStr"/>
       <c r="AP244" t="n">
         <v>1.25</v>
       </c>
@@ -34601,7 +32044,6 @@
       <c r="K245" t="n">
         <v>1251132.87</v>
       </c>
-      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -34610,16 +32052,6 @@
       <c r="N245" t="n">
         <v>1</v>
       </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="inlineStr"/>
-      <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr"/>
-      <c r="W245" t="inlineStr"/>
-      <c r="X245" t="inlineStr"/>
       <c r="Y245" t="inlineStr">
         <is>
           <t>Obligated</t>
@@ -34661,14 +32093,12 @@
       <c r="AK245" t="n">
         <v>0</v>
       </c>
-      <c r="AL245" t="inlineStr"/>
       <c r="AM245" t="n">
         <v>1</v>
       </c>
       <c r="AN245" t="n">
         <v>0</v>
       </c>
-      <c r="AO245" t="inlineStr"/>
       <c r="AP245" t="n">
         <v>1.25</v>
       </c>
@@ -34731,7 +32161,6 @@
       <c r="K246" t="n">
         <v>803159.4300000001</v>
       </c>
-      <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -34740,16 +32169,6 @@
       <c r="N246" t="n">
         <v>1</v>
       </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="inlineStr"/>
-      <c r="T246" t="inlineStr"/>
-      <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr"/>
-      <c r="W246" t="inlineStr"/>
-      <c r="X246" t="inlineStr"/>
       <c r="Y246" t="inlineStr">
         <is>
           <t>Obligated</t>
@@ -34791,14 +32210,12 @@
       <c r="AK246" t="n">
         <v>0</v>
       </c>
-      <c r="AL246" t="inlineStr"/>
       <c r="AM246" t="n">
         <v>1</v>
       </c>
       <c r="AN246" t="n">
         <v>0</v>
       </c>
-      <c r="AO246" t="inlineStr"/>
       <c r="AP246" t="n">
         <v>1.25</v>
       </c>
@@ -34872,10 +32289,10 @@
       <c r="N247" t="n">
         <v>1</v>
       </c>
-      <c r="O247" s="2" t="n">
+      <c r="O247" s="3" t="n">
         <v>45485</v>
       </c>
-      <c r="P247" s="2" t="n">
+      <c r="P247" s="3" t="n">
         <v>45638</v>
       </c>
       <c r="Q247" t="inlineStr">
@@ -34888,19 +32305,19 @@
           <t>2023-11-140</t>
         </is>
       </c>
-      <c r="S247" s="2" t="n">
+      <c r="S247" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T247" s="2" t="n">
+      <c r="T247" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U247" s="2" t="n">
+      <c r="U247" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="V247" s="2" t="n">
+      <c r="V247" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="W247" s="2" t="n">
+      <c r="W247" s="3" t="n">
         <v>45426</v>
       </c>
       <c r="X247" t="inlineStr">
@@ -34949,14 +32366,12 @@
       <c r="AK247" t="n">
         <v>0</v>
       </c>
-      <c r="AL247" t="inlineStr"/>
       <c r="AM247" t="n">
         <v>1</v>
       </c>
       <c r="AN247" t="n">
         <v>0</v>
       </c>
-      <c r="AO247" t="inlineStr"/>
       <c r="AP247" t="n">
         <v>2.25</v>
       </c>
@@ -35019,7 +32434,6 @@
       <c r="K248" t="n">
         <v>1245436.28</v>
       </c>
-      <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -35028,16 +32442,6 @@
       <c r="N248" t="n">
         <v>1</v>
       </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="inlineStr"/>
-      <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr"/>
-      <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr"/>
-      <c r="X248" t="inlineStr"/>
       <c r="Y248" t="inlineStr">
         <is>
           <t>COMPLETED BUT WITH RECTRIFICATION</t>
@@ -35079,14 +32483,12 @@
       <c r="AK248" t="n">
         <v>0</v>
       </c>
-      <c r="AL248" t="inlineStr"/>
       <c r="AM248" t="n">
         <v>1</v>
       </c>
       <c r="AN248" t="n">
         <v>0</v>
       </c>
-      <c r="AO248" t="inlineStr"/>
       <c r="AP248" t="n">
         <v>2.25</v>
       </c>
@@ -35149,7 +32551,6 @@
       <c r="K249" t="n">
         <v>3000000</v>
       </c>
-      <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr">
         <is>
           <t>Under procurement</t>
@@ -35158,16 +32559,6 @@
       <c r="N249" t="n">
         <v>0</v>
       </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="inlineStr"/>
-      <c r="T249" t="inlineStr"/>
-      <c r="U249" t="inlineStr"/>
-      <c r="V249" t="inlineStr"/>
-      <c r="W249" t="inlineStr"/>
-      <c r="X249" t="inlineStr"/>
       <c r="Y249" t="inlineStr">
         <is>
           <t>for procurement with Approved Project Modification</t>
@@ -35209,15 +32600,12 @@
       <c r="AK249" t="n">
         <v>0</v>
       </c>
-      <c r="AL249" t="inlineStr"/>
       <c r="AM249" t="n">
         <v>0</v>
       </c>
       <c r="AN249" t="n">
         <v>0</v>
       </c>
-      <c r="AO249" t="inlineStr"/>
-      <c r="AP249" t="inlineStr"/>
       <c r="AQ249" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -35277,7 +32665,6 @@
       <c r="K250" t="n">
         <v>1245436.28</v>
       </c>
-      <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr">
         <is>
           <t>NOT YET started</t>
@@ -35286,24 +32673,18 @@
       <c r="N250" t="n">
         <v>0</v>
       </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" s="2" t="n">
+      <c r="S250" s="3" t="n">
         <v>45735</v>
       </c>
-      <c r="T250" s="2" t="n">
+      <c r="T250" s="3" t="n">
         <v>45743</v>
       </c>
-      <c r="U250" s="2" t="n">
+      <c r="U250" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="V250" s="2" t="n">
+      <c r="V250" s="3" t="n">
         <v>45768</v>
       </c>
-      <c r="W250" t="inlineStr"/>
-      <c r="X250" t="inlineStr"/>
       <c r="Y250" t="inlineStr">
         <is>
           <t>Waiting for Sub-ARO</t>
@@ -35345,15 +32726,12 @@
       <c r="AK250" t="n">
         <v>0</v>
       </c>
-      <c r="AL250" t="inlineStr"/>
       <c r="AM250" t="n">
         <v>0</v>
       </c>
       <c r="AN250" t="n">
         <v>0</v>
       </c>
-      <c r="AO250" t="inlineStr"/>
-      <c r="AP250" t="inlineStr"/>
       <c r="AQ250" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -35413,7 +32791,6 @@
       <c r="K251" t="n">
         <v>1500224.29</v>
       </c>
-      <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr">
         <is>
           <t>ONGOING</t>
@@ -35422,16 +32799,6 @@
       <c r="N251" t="n">
         <v>0</v>
       </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="inlineStr"/>
-      <c r="T251" t="inlineStr"/>
-      <c r="U251" t="inlineStr"/>
-      <c r="V251" t="inlineStr"/>
-      <c r="W251" t="inlineStr"/>
-      <c r="X251" t="inlineStr"/>
       <c r="Y251" t="inlineStr">
         <is>
           <t>MOBILIZATION</t>
@@ -35473,15 +32840,12 @@
       <c r="AK251" t="n">
         <v>0</v>
       </c>
-      <c r="AL251" t="inlineStr"/>
       <c r="AM251" t="n">
         <v>0</v>
       </c>
       <c r="AN251" t="n">
         <v>0</v>
       </c>
-      <c r="AO251" t="inlineStr"/>
-      <c r="AP251" t="inlineStr"/>
       <c r="AQ251" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -35541,7 +32905,6 @@
       <c r="K252" t="n">
         <v>1063409.85</v>
       </c>
-      <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr">
         <is>
           <t>ONGOING</t>
@@ -35550,16 +32913,6 @@
       <c r="N252" t="n">
         <v>0</v>
       </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="inlineStr"/>
-      <c r="T252" t="inlineStr"/>
-      <c r="U252" t="inlineStr"/>
-      <c r="V252" t="inlineStr"/>
-      <c r="W252" t="inlineStr"/>
-      <c r="X252" t="inlineStr"/>
       <c r="Y252" t="inlineStr">
         <is>
           <t>MOBILIZATION</t>
@@ -35601,15 +32954,12 @@
       <c r="AK252" t="n">
         <v>0</v>
       </c>
-      <c r="AL252" t="inlineStr"/>
       <c r="AM252" t="n">
         <v>0</v>
       </c>
       <c r="AN252" t="n">
         <v>0</v>
       </c>
-      <c r="AO252" t="inlineStr"/>
-      <c r="AP252" t="inlineStr"/>
       <c r="AQ252" t="inlineStr">
         <is>
           <t>ENERGIZATION</t>
@@ -35669,7 +33019,6 @@
       <c r="K253" t="n">
         <v>1245436.28</v>
       </c>
-      <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -35683,7 +33032,6 @@
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="P253" t="inlineStr"/>
       <c r="Q253" t="inlineStr">
         <is>
           <t>ELEC 2024 - R IVB - PUERTO PRINCESA CITY - 001</t>
@@ -35763,14 +33111,12 @@
       <c r="AK253" t="n">
         <v>0</v>
       </c>
-      <c r="AL253" t="inlineStr"/>
       <c r="AM253" t="n">
         <v>1</v>
       </c>
       <c r="AN253" t="n">
         <v>0</v>
       </c>
-      <c r="AO253" t="inlineStr"/>
       <c r="AP253" t="n">
         <v>11.24</v>
       </c>
@@ -35782,6 +33128,79 @@
       <c r="AR253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AS2:AS253" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region IV-B/Region IV-B_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region IV-B/Region IV-B_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS253"/>
+  <dimension ref="A1:AU253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -882,7 +897,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -996,7 +1016,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1110,7 +1135,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1224,7 +1254,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1338,7 +1373,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1452,7 +1492,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1615,7 +1660,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1778,7 +1823,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1941,7 +1986,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2104,7 +2149,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2267,7 +2312,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2430,7 +2475,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2593,7 +2638,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2756,7 +2801,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2919,7 +2964,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3082,7 +3127,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3245,7 +3290,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3408,7 +3453,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3571,7 +3616,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3734,7 +3779,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3897,7 +3942,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4060,7 +4105,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4223,7 +4268,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4386,7 +4431,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4549,7 +4594,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4712,7 +4757,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4826,7 +4871,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4940,7 +4990,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5054,7 +5109,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5168,7 +5228,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5282,7 +5347,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5396,7 +5466,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5510,7 +5585,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5629,7 +5709,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5748,7 +5833,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5862,7 +5952,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5981,7 +6076,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6100,7 +6200,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6219,7 +6324,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6333,7 +6443,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6447,7 +6562,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6566,7 +6686,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6685,7 +6810,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6804,7 +6934,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6923,7 +7058,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7042,7 +7182,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7161,7 +7306,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7280,7 +7430,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7399,7 +7554,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7515,7 +7675,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7634,7 +7799,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7753,7 +7923,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7872,7 +8047,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7991,7 +8171,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8105,7 +8290,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8224,7 +8414,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8343,7 +8538,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8462,7 +8662,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8581,7 +8786,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8700,7 +8910,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8814,7 +9029,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8928,7 +9148,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9047,7 +9272,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9166,7 +9396,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9285,7 +9520,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9404,7 +9644,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9523,7 +9768,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9642,7 +9892,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9756,7 +10011,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9870,7 +10130,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9989,7 +10254,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10108,7 +10378,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10222,7 +10497,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10341,7 +10621,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10455,7 +10740,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10574,7 +10864,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10693,7 +10988,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10855,7 +11155,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11017,7 +11322,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11179,7 +11489,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11341,7 +11656,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11503,7 +11823,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11665,7 +11990,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11827,7 +12157,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11989,7 +12324,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12151,7 +12491,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12313,7 +12658,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12475,7 +12825,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12637,7 +12992,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12799,7 +13159,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12961,7 +13326,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13123,7 +13493,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13285,7 +13660,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13447,7 +13827,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AS96" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13609,7 +13994,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13771,7 +14161,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13933,7 +14328,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14095,7 +14495,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14254,7 +14659,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14416,7 +14826,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AS102" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14578,7 +14993,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AS103" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14737,7 +15157,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AS104" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14897,7 +15322,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15057,7 +15482,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AS106" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15176,6 +15606,11 @@
       </c>
       <c r="AR107" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -15286,7 +15721,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AS108" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT108" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15405,6 +15845,11 @@
       </c>
       <c r="AR109" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT109" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -15515,7 +15960,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AS110" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15627,7 +16077,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AS111" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -15744,7 +16199,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15861,7 +16321,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AS113" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15978,7 +16443,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16095,7 +16565,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16212,7 +16687,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AS116" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16329,7 +16809,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AS117" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16446,7 +16931,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AS118" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16563,7 +17053,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AS119" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16680,7 +17175,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AS120" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16794,7 +17294,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AS121" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16908,7 +17413,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AS122" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17025,7 +17535,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17142,7 +17652,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AS124" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17259,7 +17774,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17376,7 +17891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17493,7 +18008,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AS127" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17610,7 +18130,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AS128" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17727,7 +18252,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AS129" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17844,7 +18374,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AS130" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17961,7 +18496,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AS131" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18078,7 +18618,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AS132" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18195,7 +18740,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AS133" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18312,7 +18862,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AS134" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18431,6 +18986,11 @@
       </c>
       <c r="AR135" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT135" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18548,6 +19108,11 @@
       </c>
       <c r="AR136" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT136" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18663,7 +19228,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AS137" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18780,7 +19350,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AS138" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18897,7 +19472,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AS139" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19014,7 +19594,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AS140" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19131,7 +19716,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AS141" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19248,7 +19838,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AS142" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19365,7 +19960,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AS143" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19484,6 +20084,11 @@
       </c>
       <c r="AR144" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT144" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19601,6 +20206,11 @@
       </c>
       <c r="AR145" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT145" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19718,6 +20328,11 @@
       </c>
       <c r="AR146" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT146" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19835,6 +20450,11 @@
       </c>
       <c r="AR147" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT147" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -19950,7 +20570,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AS148" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20069,6 +20694,11 @@
       </c>
       <c r="AR149" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT149" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -20184,7 +20814,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AS150" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20301,7 +20936,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AS151" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20418,7 +21058,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AS152" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20535,7 +21180,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AS153" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20654,6 +21304,11 @@
       </c>
       <c r="AR154" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT154" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -20769,7 +21424,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AS155" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20886,7 +21546,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AS156" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21003,7 +21668,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AS157" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21122,6 +21792,11 @@
       </c>
       <c r="AR158" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT158" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21239,6 +21914,11 @@
       </c>
       <c r="AR159" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT159" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21356,6 +22036,11 @@
       </c>
       <c r="AR160" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT160" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21473,6 +22158,11 @@
       </c>
       <c r="AR161" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT161" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21590,6 +22280,11 @@
       </c>
       <c r="AR162" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT162" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21705,7 +22400,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AS163" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21824,6 +22524,11 @@
       </c>
       <c r="AR164" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT164" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21941,6 +22646,11 @@
       </c>
       <c r="AR165" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT165" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22058,6 +22768,11 @@
       </c>
       <c r="AR166" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT166" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22175,6 +22890,11 @@
       </c>
       <c r="AR167" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT167" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22292,6 +23012,11 @@
       </c>
       <c r="AR168" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT168" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22409,6 +23134,11 @@
       </c>
       <c r="AR169" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT169" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22526,6 +23256,11 @@
       </c>
       <c r="AR170" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT170" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22643,6 +23378,11 @@
       </c>
       <c r="AR171" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT171" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22760,6 +23500,11 @@
       </c>
       <c r="AR172" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT172" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22877,6 +23622,11 @@
       </c>
       <c r="AR173" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT173" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22992,7 +23742,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23109,7 +23859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23228,6 +23978,11 @@
       </c>
       <c r="AR176" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT176" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23345,6 +24100,11 @@
       </c>
       <c r="AR177" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT177" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23459,6 +24219,11 @@
       </c>
       <c r="AR178" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT178" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23574,7 +24339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23691,7 +24456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23808,7 +24573,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23924,6 +24689,11 @@
       </c>
       <c r="AR182" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24039,7 +24809,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24153,7 +24923,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24270,7 +25040,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24387,7 +25157,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24504,7 +25274,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24623,6 +25393,11 @@
       </c>
       <c r="AR188" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT188" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24735,7 +25510,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24854,6 +25629,11 @@
       </c>
       <c r="AR190" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT190" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24968,6 +25748,11 @@
       </c>
       <c r="AR191" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25083,7 +25868,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25221,7 +26006,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -25359,7 +26149,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AS194" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -25497,7 +26292,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AS195" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -25635,7 +26435,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AS196" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -25773,7 +26578,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AS197" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -25911,7 +26721,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AS198" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26049,7 +26864,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AS199" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26187,7 +27007,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AS200" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26325,7 +27150,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AS201" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26463,7 +27293,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AS202" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26601,7 +27436,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AS203" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26739,7 +27579,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AS204" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
         <is>
           <t>Terminated</t>
         </is>
@@ -26891,7 +27736,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27048,7 +27893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27210,7 +28055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27372,7 +28217,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27534,7 +28379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27696,7 +28541,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27858,7 +28703,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28020,7 +28865,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28134,7 +28979,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28248,7 +29093,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28362,7 +29207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28476,7 +29321,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28590,7 +29435,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28704,7 +29549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28818,7 +29663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28932,7 +29777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29051,7 +29896,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29170,7 +30015,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29279,7 +30124,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29388,7 +30233,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29497,7 +30342,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29654,7 +30499,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29811,7 +30656,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29968,7 +30813,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30135,7 +30980,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30302,7 +31147,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30416,7 +31261,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30530,7 +31375,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30644,7 +31489,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30758,7 +31603,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30872,7 +31717,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30981,7 +31826,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31125,7 +31970,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31271,6 +32116,11 @@
       </c>
       <c r="AR238" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT238" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31415,6 +32265,16 @@
       </c>
       <c r="AR239" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS239" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT239" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31522,7 +32382,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31641,6 +32501,11 @@
       </c>
       <c r="AR241" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT241" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31758,6 +32623,11 @@
       </c>
       <c r="AR242" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT242" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31875,6 +32745,11 @@
       </c>
       <c r="AR243" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT243" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31992,6 +32867,11 @@
       </c>
       <c r="AR244" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT244" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32109,6 +32989,11 @@
       </c>
       <c r="AR245" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT245" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32226,6 +33111,11 @@
       </c>
       <c r="AR246" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32382,6 +33272,11 @@
       </c>
       <c r="AR247" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT247" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32499,6 +33394,11 @@
       </c>
       <c r="AR248" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32611,7 +33511,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
@@ -32737,7 +33637,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -32851,7 +33751,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -32965,7 +33865,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -33127,13 +34027,18 @@
       </c>
       <c r="AR253" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT253" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS253" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU253" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
